--- a/metadata_list.xlsx
+++ b/metadata_list.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b1de032d2a5bace2/Dokumente/Desktop/Uni/Master/Thesis/PaperDatenextraktion/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jana\LabCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="63" documentId="11_449183F2F613C8264F2C4C5E355B607B58E8AEF2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F14427A3-AC07-428B-ACED-F8CAEECFD5EE}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B064AC8-FE8A-45E4-ADE2-FB9565913A54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -136,9 +136,6 @@
     <t>Data Mining and Knowledge Discovery</t>
   </si>
   <si>
-    <t xml:space="preserve"> Journal of Business Logistics</t>
-  </si>
-  <si>
     <t>Renewable and Sustainable Energy Reviews</t>
   </si>
   <si>
@@ -161,6 +158,9 @@
   </si>
   <si>
     <t>x</t>
+  </si>
+  <si>
+    <t>Journal of Business Logistics</t>
   </si>
 </sst>
 </file>
@@ -566,7 +566,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -614,7 +614,7 @@
         <v>36</v>
       </c>
       <c r="F2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -634,7 +634,7 @@
         <v>37</v>
       </c>
       <c r="F3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -651,10 +651,10 @@
         <v>2013</v>
       </c>
       <c r="E4" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="F4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -671,10 +671,10 @@
         <v>2012</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -691,10 +691,10 @@
         <v>2008</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -711,10 +711,10 @@
         <v>2018</v>
       </c>
       <c r="E7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -731,10 +731,10 @@
         <v>2019</v>
       </c>
       <c r="E8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -751,10 +751,10 @@
         <v>2007</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -771,10 +771,10 @@
         <v>2008</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -791,10 +791,10 @@
         <v>2012</v>
       </c>
       <c r="E11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/metadata_list.xlsx
+++ b/metadata_list.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jana\LabCode\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B538379-CD10-45D4-9D77-4E3352C41343}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="855" yWindow="4200" windowWidth="21600" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -286,9 +292,6 @@
     <t>A Comprehensive Study of DNS Operational Issues by Mining DNS Forums</t>
   </si>
   <si>
-    <t xml:space="preserve"> Modified Evolutionary Algorithm for Generating the Cycling Training Routes</t>
-  </si>
-  <si>
     <t xml:space="preserve"> A Novel Similarity-Based Multi-Attribute Group Decision-Making Method in a Probabilistic
 Hesitant Fuzzy Environment</t>
   </si>
@@ -305,9 +308,6 @@
   </si>
   <si>
     <t>Audiogram Digitization Tool for Audiological Reports</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Reliability aspects of binary vector-matrixmultiplications using ReRAM devices</t>
   </si>
   <si>
     <t>A biology-informed similarity metric for simulated patches of human cell membrane</t>
@@ -944,13 +944,19 @@
   </si>
   <si>
     <t>x</t>
+  </si>
+  <si>
+    <t>Reliability aspects of binary vector-matrixmultiplications using ReRAM devices</t>
+  </si>
+  <si>
+    <t>Modified Evolutionary Algorithm for Generating the Cycling Training Routes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1009,15 +1015,23 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1059,7 +1073,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1091,9 +1105,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1125,6 +1157,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1300,14 +1350,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F84"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1327,7 +1379,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1335,1656 +1387,1656 @@
         <v>89</v>
       </c>
       <c r="C2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="F2" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>90</v>
+        <v>306</v>
       </c>
       <c r="C3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D3" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E3" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="F3" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E4" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="F4" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C5" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D5" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E5" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="F5" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D6" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E6" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="F6" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D7" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E7" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F7" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C8" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D8" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E8" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="F8" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>96</v>
+        <v>305</v>
       </c>
       <c r="C9" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D9" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E9" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="F9" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C10" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D10" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E10" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F10" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C11" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D11" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E11" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="F11" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C12" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D12" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E12" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F12" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C13" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D13" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E13" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F13" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C14" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D14" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E14" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="F14" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C15" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D15" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E15" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="F15" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C16" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D16" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E16" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="F16" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C17" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D17" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E17" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="F17" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C18" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D18" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E18" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F18" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C19" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D19" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E19" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="F19" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>24</v>
       </c>
       <c r="B20" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C20" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D20" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E20" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="F20" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>25</v>
       </c>
       <c r="B21" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C21" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D21" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E21" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="F21" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>26</v>
       </c>
       <c r="B22" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C22" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D22" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E22" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F22" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>27</v>
       </c>
       <c r="B23" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C23" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D23" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E23" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F23" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>28</v>
       </c>
       <c r="B24" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C24" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D24" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E24" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="F24" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>29</v>
       </c>
       <c r="B25" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C25" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D25" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E25" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="F25" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>30</v>
       </c>
       <c r="B26" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C26" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D26" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E26" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F26" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>31</v>
       </c>
       <c r="B27" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C27" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D27" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E27" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F27" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>32</v>
       </c>
       <c r="B28" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C28" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D28" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E28" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F28" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>33</v>
       </c>
       <c r="B29" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C29" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D29" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E29" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F29" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>34</v>
       </c>
       <c r="B30" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C30" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D30" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E30" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F30" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>35</v>
       </c>
       <c r="B31" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C31" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D31" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E31" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F31" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>36</v>
       </c>
       <c r="B32" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C32" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D32" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E32" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F32" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>37</v>
       </c>
       <c r="B33" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C33" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D33" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E33" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F33" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>38</v>
       </c>
       <c r="B34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C34" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D34" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E34" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F34" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>39</v>
       </c>
       <c r="B35" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C35" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D35" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E35" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F35" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>40</v>
       </c>
       <c r="B36" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C36" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D36" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E36" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="F36" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>41</v>
       </c>
       <c r="B37" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C37" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D37" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E37" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F37" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>42</v>
       </c>
       <c r="B38" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C38" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D38" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E38" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F38" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>43</v>
       </c>
       <c r="B39" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C39" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D39" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E39" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F39" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>44</v>
       </c>
       <c r="B40" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C40" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D40" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E40" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="F40" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>45</v>
       </c>
       <c r="B41" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C41" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D41" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E41" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="F41" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>46</v>
       </c>
       <c r="B42" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C42" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D42" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E42" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F42" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>47</v>
       </c>
       <c r="B43" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C43" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D43" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E43" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="F43" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>48</v>
       </c>
       <c r="B44" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C44" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D44" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E44" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F44" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>49</v>
       </c>
       <c r="B45" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C45" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D45" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E45" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="F45" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>50</v>
       </c>
       <c r="B46" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C46" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D46" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E46" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="F46" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>51</v>
       </c>
       <c r="B47" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C47" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D47" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E47" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="F47" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>52</v>
       </c>
       <c r="B48" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C48" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D48" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E48" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="F48" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>53</v>
       </c>
       <c r="B49" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C49" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D49" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E49" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="F49" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>54</v>
       </c>
       <c r="B50" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C50" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D50" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E50" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="F50" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>55</v>
       </c>
       <c r="B51" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C51" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D51" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E51" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="F51" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>56</v>
       </c>
       <c r="B52" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C52" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D52" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="E52" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="F52" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>57</v>
       </c>
       <c r="B53" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C53" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D53" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E53" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="F53" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>58</v>
       </c>
       <c r="B54" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C54" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D54" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E54" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="F54" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>59</v>
       </c>
       <c r="B55" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C55" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D55" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E55" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="F55" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>60</v>
       </c>
       <c r="B56" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C56" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D56" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E56" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F56" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>61</v>
       </c>
       <c r="B57" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C57" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D57" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E57" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F57" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>62</v>
       </c>
       <c r="B58" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C58" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D58" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E58" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F58" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>63</v>
       </c>
       <c r="B59" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C59" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D59" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E59" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F59" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>64</v>
       </c>
       <c r="B60" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C60" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D60" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E60" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="F60" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>65</v>
       </c>
       <c r="B61" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C61" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D61" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E61" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="F61" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>66</v>
       </c>
       <c r="B62" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C62" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D62" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E62" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="F62" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>67</v>
       </c>
       <c r="B63" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C63" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D63" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E63" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="F63" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>68</v>
       </c>
       <c r="B64" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C64" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D64" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E64" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="F64" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>69</v>
       </c>
       <c r="B65" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C65" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D65" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E65" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="F65" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>70</v>
       </c>
       <c r="B66" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C66" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D66" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E66" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="F66" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>71</v>
       </c>
       <c r="B67" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C67" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D67" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="E67" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="F67" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>72</v>
       </c>
       <c r="B68" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C68" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D68" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E68" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="F68" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>73</v>
       </c>
       <c r="B69" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C69" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D69" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E69" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="F69" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>74</v>
       </c>
       <c r="B70" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C70" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D70" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E70" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="F70" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>75</v>
       </c>
       <c r="B71" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C71" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D71" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E71" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F71" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>76</v>
       </c>
       <c r="B72" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C72" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D72" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E72" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F72" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>77</v>
       </c>
       <c r="B73" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C73" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D73" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E73" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F73" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>78</v>
       </c>
       <c r="B74" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C74" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D74" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E74" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F74" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>79</v>
       </c>
       <c r="B75" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C75" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D75" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E75" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F75" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>80</v>
       </c>
       <c r="B76" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C76" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D76" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E76" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="F76" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>81</v>
       </c>
       <c r="B77" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C77" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D77" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E77" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="F77" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>82</v>
       </c>
       <c r="B78" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C78" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D78" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E78" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="F78" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>83</v>
       </c>
       <c r="B79" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C79" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D79" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E79" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="F79" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>84</v>
       </c>
       <c r="B80" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C80" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D80" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E80" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F80" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>85</v>
       </c>
       <c r="B81" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C81" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D81" t="s">
+        <v>295</v>
+      </c>
+      <c r="E81" t="s">
         <v>297</v>
       </c>
-      <c r="E81" t="s">
-        <v>299</v>
-      </c>
       <c r="F81" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>86</v>
       </c>
       <c r="B82" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C82" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D82" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E82" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F82" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>87</v>
       </c>
       <c r="B83" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C83" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D83" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E83" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="F83" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>88</v>
       </c>
       <c r="B84" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C84" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D84" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E84" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="F84" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
   </sheetData>

--- a/metadata_list.xlsx
+++ b/metadata_list.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25601"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jana\LabCode\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B538379-CD10-45D4-9D77-4E3352C41343}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="855" yWindow="4200" windowWidth="21600" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -292,6 +286,9 @@
     <t>A Comprehensive Study of DNS Operational Issues by Mining DNS Forums</t>
   </si>
   <si>
+    <t>Modified Evolutionary Algorithm for Generating the Cycling Training Routes</t>
+  </si>
+  <si>
     <t xml:space="preserve"> A Novel Similarity-Based Multi-Attribute Group Decision-Making Method in a Probabilistic
 Hesitant Fuzzy Environment</t>
   </si>
@@ -308,6 +305,9 @@
   </si>
   <si>
     <t>Audiogram Digitization Tool for Audiological Reports</t>
+  </si>
+  <si>
+    <t>Reliability aspects of binary vector-matrixmultiplications using ReRAM devices</t>
   </si>
   <si>
     <t>A biology-informed similarity metric for simulated patches of human cell membrane</t>
@@ -928,7 +928,7 @@
     <t>Neuromorphic Computing and Engineering</t>
   </si>
   <si>
-    <t>International Conference on Computing and Wireless Communication Systems (ICCWCS 2022)</t>
+    <t>ICCWCS 2022</t>
   </si>
   <si>
     <t>NEWTECH</t>
@@ -944,19 +944,13 @@
   </si>
   <si>
     <t>x</t>
-  </si>
-  <si>
-    <t>Reliability aspects of binary vector-matrixmultiplications using ReRAM devices</t>
-  </si>
-  <si>
-    <t>Modified Evolutionary Algorithm for Generating the Cycling Training Routes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1015,23 +1009,15 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1073,7 +1059,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1105,27 +1091,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1157,24 +1125,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1350,16 +1300,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F84"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1379,7 +1327,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1387,1656 +1335,1656 @@
         <v>89</v>
       </c>
       <c r="C2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D2" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="E2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="F2" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>306</v>
+        <v>90</v>
       </c>
       <c r="C3" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D3" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="E3" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="F3" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C4" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D4" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="E4" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="F4" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C5" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D5" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="E5" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="F5" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C6" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D6" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="E6" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="F6" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="F7" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C8" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D8" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="E8" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="F8" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>305</v>
+        <v>96</v>
       </c>
       <c r="C9" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D9" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="E9" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="F9" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C10" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D10" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="E10" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="F10" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C11" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D11" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="E11" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="F11" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C12" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D12" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E12" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="F12" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
         <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C13" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D13" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="E13" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="F13" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
         <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C14" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D14" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="E14" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="F14" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
         <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C15" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D15" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="E15" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="F15" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
         <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C16" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D16" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="E16" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="F16" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
         <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C17" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D17" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="E17" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="F17" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C18" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D18" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E18" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="F18" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" t="s">
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C19" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D19" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="E19" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="F19" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" t="s">
         <v>24</v>
       </c>
       <c r="B20" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C20" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D20" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="E20" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="F20" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" t="s">
         <v>25</v>
       </c>
       <c r="B21" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C21" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D21" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="E21" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="F21" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" t="s">
         <v>26</v>
       </c>
       <c r="B22" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C22" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D22" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="E22" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="F22" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" t="s">
         <v>27</v>
       </c>
       <c r="B23" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C23" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D23" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="E23" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="F23" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" t="s">
         <v>28</v>
       </c>
       <c r="B24" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C24" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D24" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="E24" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="F24" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" t="s">
         <v>29</v>
       </c>
       <c r="B25" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C25" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D25" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="E25" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="F25" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" t="s">
         <v>30</v>
       </c>
       <c r="B26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C26" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D26" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="E26" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="F26" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" t="s">
         <v>31</v>
       </c>
       <c r="B27" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C27" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D27" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="E27" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="F27" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" t="s">
         <v>32</v>
       </c>
       <c r="B28" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C28" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D28" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="E28" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="F28" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" t="s">
         <v>33</v>
       </c>
       <c r="B29" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C29" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D29" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="E29" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="F29" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" t="s">
         <v>34</v>
       </c>
       <c r="B30" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C30" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D30" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="E30" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="F30" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" t="s">
         <v>35</v>
       </c>
       <c r="B31" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C31" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D31" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="E31" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="F31" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" t="s">
         <v>36</v>
       </c>
       <c r="B32" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C32" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D32" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="E32" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="F32" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" t="s">
         <v>37</v>
       </c>
       <c r="B33" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C33" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D33" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="E33" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="F33" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" t="s">
         <v>38</v>
       </c>
       <c r="B34" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C34" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D34" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="E34" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="F34" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" t="s">
         <v>39</v>
       </c>
       <c r="B35" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C35" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D35" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="E35" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="F35" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" t="s">
         <v>40</v>
       </c>
       <c r="B36" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C36" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D36" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="E36" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="F36" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" t="s">
         <v>41</v>
       </c>
       <c r="B37" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C37" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D37" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E37" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="F37" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" t="s">
         <v>42</v>
       </c>
       <c r="B38" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C38" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D38" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E38" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="F38" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" t="s">
         <v>43</v>
       </c>
       <c r="B39" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C39" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D39" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="E39" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="F39" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" t="s">
         <v>44</v>
       </c>
       <c r="B40" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C40" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D40" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E40" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="F40" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" t="s">
         <v>45</v>
       </c>
       <c r="B41" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C41" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D41" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="E41" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="F41" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" t="s">
         <v>46</v>
       </c>
       <c r="B42" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C42" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D42" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="E42" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="F42" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" t="s">
         <v>47</v>
       </c>
       <c r="B43" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C43" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D43" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="E43" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="F43" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" t="s">
         <v>48</v>
       </c>
       <c r="B44" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C44" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D44" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E44" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="F44" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" t="s">
         <v>49</v>
       </c>
       <c r="B45" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C45" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D45" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="E45" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="F45" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" t="s">
         <v>50</v>
       </c>
       <c r="B46" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C46" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D46" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="E46" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="F46" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" t="s">
         <v>51</v>
       </c>
       <c r="B47" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C47" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D47" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="E47" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="F47" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" t="s">
         <v>52</v>
       </c>
       <c r="B48" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C48" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D48" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="E48" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="F48" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" t="s">
         <v>53</v>
       </c>
       <c r="B49" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C49" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D49" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="E49" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="F49" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" t="s">
         <v>54</v>
       </c>
       <c r="B50" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C50" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D50" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="E50" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="F50" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" t="s">
         <v>55</v>
       </c>
       <c r="B51" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C51" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D51" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="E51" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="F51" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" t="s">
         <v>56</v>
       </c>
       <c r="B52" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C52" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D52" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="E52" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="F52" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" t="s">
         <v>57</v>
       </c>
       <c r="B53" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C53" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D53" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E53" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="F53" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" t="s">
         <v>58</v>
       </c>
       <c r="B54" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C54" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D54" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="E54" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="F54" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" t="s">
         <v>59</v>
       </c>
       <c r="B55" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C55" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D55" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="E55" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="F55" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" t="s">
         <v>60</v>
       </c>
       <c r="B56" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C56" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D56" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="E56" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="F56" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" t="s">
         <v>61</v>
       </c>
       <c r="B57" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C57" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D57" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="E57" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="F57" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" t="s">
         <v>62</v>
       </c>
       <c r="B58" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C58" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D58" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="E58" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="F58" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" t="s">
         <v>63</v>
       </c>
       <c r="B59" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C59" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="D59" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="E59" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="F59" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" t="s">
         <v>64</v>
       </c>
       <c r="B60" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C60" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D60" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="E60" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="F60" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" t="s">
         <v>65</v>
       </c>
       <c r="B61" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C61" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D61" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="E61" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="F61" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" t="s">
         <v>66</v>
       </c>
       <c r="B62" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C62" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D62" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="E62" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="F62" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" t="s">
         <v>67</v>
       </c>
       <c r="B63" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C63" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D63" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="E63" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="F63" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" t="s">
         <v>68</v>
       </c>
       <c r="B64" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C64" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D64" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="E64" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="F64" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" t="s">
         <v>69</v>
       </c>
       <c r="B65" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C65" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D65" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="E65" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="F65" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" t="s">
         <v>70</v>
       </c>
       <c r="B66" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C66" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D66" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="E66" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="F66" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" t="s">
         <v>71</v>
       </c>
       <c r="B67" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C67" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D67" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="E67" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="F67" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" t="s">
         <v>72</v>
       </c>
       <c r="B68" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C68" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D68" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="E68" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="F68" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" t="s">
         <v>73</v>
       </c>
       <c r="B69" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C69" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D69" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="E69" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="F69" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" t="s">
         <v>74</v>
       </c>
       <c r="B70" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C70" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D70" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="E70" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="F70" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" t="s">
         <v>75</v>
       </c>
       <c r="B71" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C71" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D71" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="E71" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="F71" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" t="s">
         <v>76</v>
       </c>
       <c r="B72" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C72" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D72" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="E72" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="F72" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" t="s">
         <v>77</v>
       </c>
       <c r="B73" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C73" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D73" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="E73" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="F73" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" t="s">
         <v>78</v>
       </c>
       <c r="B74" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C74" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="D74" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="E74" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="F74" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" t="s">
         <v>79</v>
       </c>
       <c r="B75" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C75" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D75" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="E75" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="F75" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" t="s">
         <v>80</v>
       </c>
       <c r="B76" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C76" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D76" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="E76" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="F76" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" t="s">
         <v>81</v>
       </c>
       <c r="B77" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C77" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D77" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="E77" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="F77" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" t="s">
         <v>82</v>
       </c>
       <c r="B78" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C78" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D78" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="E78" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="F78" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" t="s">
         <v>83</v>
       </c>
       <c r="B79" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C79" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D79" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="E79" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="F79" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" t="s">
         <v>84</v>
       </c>
       <c r="B80" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C80" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D80" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="E80" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="F80" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" t="s">
         <v>85</v>
       </c>
       <c r="B81" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C81" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="D81" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="E81" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="F81" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" t="s">
         <v>86</v>
       </c>
       <c r="B82" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C82" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D82" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="E82" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="F82" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" t="s">
         <v>87</v>
       </c>
       <c r="B83" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C83" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D83" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="E83" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="F83" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" t="s">
         <v>88</v>
       </c>
       <c r="B84" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C84" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D84" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="E84" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="F84" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
   </sheetData>

--- a/metadata_list.xlsx
+++ b/metadata_list.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="307">
   <si>
     <t>PDF</t>
   </si>
@@ -34,6 +34,21 @@
     <t>Check</t>
   </si>
   <si>
+    <t>matecconf_newtech22_01001.pdf</t>
+  </si>
+  <si>
+    <t>matecconf_newtech22_01010.pdf</t>
+  </si>
+  <si>
+    <t>Advanced_Mobility_Robustness_Optimization_Models_in_Future_Mobile_Networks_Based_on_Machine_Learning_Solutions.pdf</t>
+  </si>
+  <si>
+    <t>Anzalone_2022_Mach._Learn.__Sci._Technol._3_035017.pdf</t>
+  </si>
+  <si>
+    <t>Audiogram_Digitization_Tool_for_Audiological_Reports.pdf</t>
+  </si>
+  <si>
     <t>A_Comprehensive_Study_of_DNS_Operational_Issues_by_Mining_DNS_Forums.pdf</t>
   </si>
   <si>
@@ -46,15 +61,6 @@
     <t>A_Selective_Many-to-Many_Pickup_and_Delivery_Problem_With_Handling_Cost_in_the_Omni-Channel_Last-Mile_Delivery.pdf</t>
   </si>
   <si>
-    <t>Advanced_Mobility_Robustness_Optimization_Models_in_Future_Mobile_Networks_Based_on_Machine_Learning_Solutions.pdf</t>
-  </si>
-  <si>
-    <t>Anzalone_2022_Mach._Learn.__Sci._Technol._3_035017.pdf</t>
-  </si>
-  <si>
-    <t>Audiogram_Digitization_Tool_for_Audiological_Reports.pdf</t>
-  </si>
-  <si>
     <t>Bengel_2022_Neuromorph._Comput._Eng._2_034001.pdf</t>
   </si>
   <si>
@@ -67,220 +73,230 @@
     <t>Chang_2022_Mach._Learn.__Sci._Technol._3_035001.pdf</t>
   </si>
   <si>
+    <t>Detection_of_Cluster_Anomalies_With_ML_Techniques.pdf</t>
+  </si>
+  <si>
+    <t>Du_2022_Neuromorph._Comput._Eng._2_034006.pdf</t>
+  </si>
+  <si>
+    <t>Dynamic_Decomposition_of_Service_Function_Chain_Using_a_Deep_Reinforcement_Learning_Approach.pdf</t>
+  </si>
+  <si>
+    <t>Explainable_Computer-Aided_Detection_of_Obstructive_Sleep_Apnea_and_Depression.pdf</t>
+  </si>
+  <si>
+    <t>Fabregat_2022_Mach._Learn.__Sci._Technol._3_035015.pdf</t>
+  </si>
+  <si>
+    <t>Fault-Tolerant_Ad_Hoc_On-Demand_Routing_Protocol_for_Mobile_Ad_Hoc_Networks.pdf</t>
+  </si>
+  <si>
+    <t>Features-Based_IoT_Security_Authentication_Framework_Using_Statistical_Aggregation_Entropy_and_MOORA_Approaches.pdf</t>
+  </si>
+  <si>
+    <t>GhostLeg_Selective_Memory_Coalescing_for_Secure_GPU_Architecture.pdf</t>
+  </si>
+  <si>
+    <t>Herrera_Segura_2022_Mach._Learn.__Sci._Technol._3_035013.pdf</t>
+  </si>
+  <si>
+    <t>Hunter_2022_Neuromorph._Comput._Eng._2_034004.pdf</t>
+  </si>
+  <si>
+    <t>Hu_2022_Mach._Learn.__Sci._Technol._3_035009.pdf</t>
+  </si>
+  <si>
+    <t>Industrial_Energy_Management_System_Design_of_a_Conceptual_Framework_Using_IoT_and_Big_Data.pdf</t>
+  </si>
+  <si>
+    <t>itmconf_iccwcs2022_03001.pdf</t>
+  </si>
+  <si>
+    <t>itmconf_iccwcs2022_03002.pdf</t>
+  </si>
+  <si>
+    <t>itmconf_iccwcs2022_03003.pdf</t>
+  </si>
+  <si>
+    <t>itmconf_iccwcs2022_03004.pdf</t>
+  </si>
+  <si>
+    <t>itmconf_iccwcs2022_03005.pdf</t>
+  </si>
+  <si>
+    <t>itmconf_iccwcs2022_03006.pdf</t>
+  </si>
+  <si>
+    <t>itmconf_iccwcs2022_03007.pdf</t>
+  </si>
+  <si>
+    <t>itmconf_iccwcs2022_04001.pdf</t>
+  </si>
+  <si>
+    <t>Jha_2022_Mach._Learn.__Sci._Technol._3_035016.pdf</t>
+  </si>
+  <si>
+    <t>Kahn_2022_Mach._Learn.__Sci._Technol._3_035012.pdf</t>
+  </si>
+  <si>
+    <t>Kinematic_Optimization_of_6DOF_Serial_Robot_Arms_by_Bio-Inspired_Algorithms.pdf</t>
+  </si>
+  <si>
+    <t>Kiss_2022_Mach._Learn.__Sci._Technol._3_035004.pdf</t>
+  </si>
+  <si>
+    <t>Krippendorf_2022_Mach._Learn.__Sci._Technol._3_035011.pdf</t>
+  </si>
+  <si>
+    <t>Larfors_2022_Mach._Learn.__Sci._Technol._3_035014.pdf</t>
+  </si>
+  <si>
+    <t>Leroux_2022_Neuromorph._Comput._Eng._2_034002.pdf</t>
+  </si>
+  <si>
+    <t>Liu_2022_Neuromorph._Comput._Eng._2_034013.pdf</t>
+  </si>
+  <si>
+    <t>Lollie_2022_Mach._Learn.__Sci._Technol._3_035006.pdf</t>
+  </si>
+  <si>
+    <t>Lombo_2022_Neuromorph._Comput._Eng._2_034011.pdf</t>
+  </si>
+  <si>
+    <t>Lucibello_2022_Mach._Learn.__Sci._Technol._3_035005.pdf</t>
+  </si>
+  <si>
+    <t>Machine_Learning-Based_Early_Skip_Decision_for_Intra_Subpartition_Prediction_in_VVC.pdf</t>
+  </si>
+  <si>
+    <t>matecconf_newtech22_01013.pdf</t>
+  </si>
+  <si>
+    <t>matecconf_newtech22_01014.pdf</t>
+  </si>
+  <si>
+    <t>matecconf_newtech22_01015.pdf</t>
+  </si>
+  <si>
+    <t>Method_for_Profile-Guided_Optimization_of_Android_Applications_Using_Random_Forest.pdf</t>
+  </si>
+  <si>
+    <t>Microgrid_Power_Sharing_Framework_for_Software_Defined_Networking_and_Cybersecurity_Analysis.pdf</t>
+  </si>
+  <si>
+    <t>Multi-Dimensional_Data_Compression_and_Query_Processing_in_Array_Databases.pdf</t>
+  </si>
+  <si>
+    <t>Prasad_2022_Neuromorph._Comput._Eng._2_034003.pdf</t>
+  </si>
+  <si>
+    <t>Predictive_Hybrid_Autoscaling_for_Containerized_Applications.pdf</t>
+  </si>
+  <si>
+    <t>proc2107102.pdf</t>
+  </si>
+  <si>
+    <t>proc2107108.pdf</t>
+  </si>
+  <si>
+    <t>proc2107109.pdf</t>
+  </si>
+  <si>
+    <t>proc2107112.pdf</t>
+  </si>
+  <si>
+    <t>Reduction_of_the_Delays_Within_an_Intrusion_Detection_System_IDS_Based_on_Software_Defined_Networking_SDN.pdf</t>
+  </si>
+  <si>
+    <t>sands20210001.pdf</t>
+  </si>
+  <si>
+    <t>sands20210002.pdf</t>
+  </si>
+  <si>
+    <t>sands20210003.pdf</t>
+  </si>
+  <si>
+    <t>sands20210004.pdf</t>
+  </si>
+  <si>
+    <t>sands20210005.pdf</t>
+  </si>
+  <si>
+    <t>sands20220003.pdf</t>
+  </si>
+  <si>
+    <t>sands20220004.pdf</t>
+  </si>
+  <si>
+    <t>sands20220006.pdf</t>
+  </si>
+  <si>
+    <t>SEM_Image_Quality_Assessment_Based_on_Intuitive_Morphology_and_Deep_Semantic_Features.pdf</t>
+  </si>
+  <si>
+    <t>Shi_2022_Neuromorph._Comput._Eng._2_034010.pdf</t>
+  </si>
+  <si>
+    <t>smdo210012.pdf</t>
+  </si>
+  <si>
+    <t>smdo210013.pdf</t>
+  </si>
+  <si>
+    <t>smdo210025.pdf</t>
+  </si>
+  <si>
+    <t>smdo210041.pdf</t>
+  </si>
+  <si>
+    <t>smdo210083.pdf</t>
+  </si>
+  <si>
+    <t>SMRETO_Stable_Matching_for_Reliable_and_Efficient_Task_Offloading_in_Fog-Enabled_IoT_Networks.pdf</t>
+  </si>
+  <si>
+    <t>Stroobants_2022_Neuromorph._Comput._Eng._2_034005.pdf</t>
+  </si>
+  <si>
+    <t>Sulinskas_2022_Neuromorph._Comput._Eng._2_034008.pdf</t>
+  </si>
+  <si>
+    <t>The_Metaverse_and_Beyond_Implementing_Advanced_Multiverse_Realms_With_Smart_Wearables.pdf</t>
+  </si>
+  <si>
+    <t>Thiede_2022_Mach._Learn.__Sci._Technol._3_035008.pdf</t>
+  </si>
+  <si>
+    <t>Thiele_2022_Mach._Learn.__Sci._Technol._3_035002.pdf</t>
+  </si>
+  <si>
+    <t>Touranakou_2022_Mach._Learn.__Sci._Technol._3_035003.pdf</t>
+  </si>
+  <si>
+    <t>van_Niekerk_2022_Neuromorph._Comput._Eng._2_034012.pdf</t>
+  </si>
+  <si>
+    <t>Zhu_2022_Neuromorph._Comput._Eng._2_034007.pdf</t>
+  </si>
+  <si>
     <t>Ćiprijanović_2022_Mach._Learn.__Sci._Technol._3_035007.pdf</t>
   </si>
   <si>
-    <t>Detection_of_Cluster_Anomalies_With_ML_Techniques.pdf</t>
-  </si>
-  <si>
-    <t>Du_2022_Neuromorph._Comput._Eng._2_034006.pdf</t>
-  </si>
-  <si>
-    <t>Dynamic_Decomposition_of_Service_Function_Chain_Using_a_Deep_Reinforcement_Learning_Approach.pdf</t>
-  </si>
-  <si>
-    <t>Explainable_Computer-Aided_Detection_of_Obstructive_Sleep_Apnea_and_Depression.pdf</t>
-  </si>
-  <si>
-    <t>Fabregat_2022_Mach._Learn.__Sci._Technol._3_035015.pdf</t>
-  </si>
-  <si>
-    <t>Fault-Tolerant_Ad_Hoc_On-Demand_Routing_Protocol_for_Mobile_Ad_Hoc_Networks.pdf</t>
-  </si>
-  <si>
-    <t>Features-Based_IoT_Security_Authentication_Framework_Using_Statistical_Aggregation_Entropy_and_MOORA_Approaches.pdf</t>
-  </si>
-  <si>
-    <t>GhostLeg_Selective_Memory_Coalescing_for_Secure_GPU_Architecture.pdf</t>
-  </si>
-  <si>
-    <t>Herrera_Segura_2022_Mach._Learn.__Sci._Technol._3_035013.pdf</t>
-  </si>
-  <si>
-    <t>Hu_2022_Mach._Learn.__Sci._Technol._3_035009.pdf</t>
-  </si>
-  <si>
-    <t>Hunter_2022_Neuromorph._Comput._Eng._2_034004.pdf</t>
-  </si>
-  <si>
-    <t>Industrial_Energy_Management_System_Design_of_a_Conceptual_Framework_Using_IoT_and_Big_Data.pdf</t>
-  </si>
-  <si>
-    <t>itmconf_iccwcs2022_03001.pdf</t>
-  </si>
-  <si>
-    <t>itmconf_iccwcs2022_03002.pdf</t>
-  </si>
-  <si>
-    <t>itmconf_iccwcs2022_03003.pdf</t>
-  </si>
-  <si>
-    <t>itmconf_iccwcs2022_03004.pdf</t>
-  </si>
-  <si>
-    <t>itmconf_iccwcs2022_03005.pdf</t>
-  </si>
-  <si>
-    <t>itmconf_iccwcs2022_03006.pdf</t>
-  </si>
-  <si>
-    <t>itmconf_iccwcs2022_03007.pdf</t>
-  </si>
-  <si>
-    <t>itmconf_iccwcs2022_04001.pdf</t>
-  </si>
-  <si>
-    <t>Jha_2022_Mach._Learn.__Sci._Technol._3_035016.pdf</t>
-  </si>
-  <si>
-    <t>Kahn_2022_Mach._Learn.__Sci._Technol._3_035012.pdf</t>
-  </si>
-  <si>
-    <t>Kinematic_Optimization_of_6DOF_Serial_Robot_Arms_by_Bio-Inspired_Algorithms.pdf</t>
-  </si>
-  <si>
-    <t>Kiss_2022_Mach._Learn.__Sci._Technol._3_035004.pdf</t>
-  </si>
-  <si>
-    <t>Krippendorf_2022_Mach._Learn.__Sci._Technol._3_035011.pdf</t>
-  </si>
-  <si>
-    <t>Larfors_2022_Mach._Learn.__Sci._Technol._3_035014.pdf</t>
-  </si>
-  <si>
-    <t>Leroux_2022_Neuromorph._Comput._Eng._2_034002.pdf</t>
-  </si>
-  <si>
-    <t>Liu_2022_Neuromorph._Comput._Eng._2_034013.pdf</t>
-  </si>
-  <si>
-    <t>Lollie_2022_Mach._Learn.__Sci._Technol._3_035006.pdf</t>
-  </si>
-  <si>
-    <t>Lombo_2022_Neuromorph._Comput._Eng._2_034011.pdf</t>
-  </si>
-  <si>
-    <t>Lucibello_2022_Mach._Learn.__Sci._Technol._3_035005.pdf</t>
-  </si>
-  <si>
-    <t>Machine_Learning-Based_Early_Skip_Decision_for_Intra_Subpartition_Prediction_in_VVC.pdf</t>
-  </si>
-  <si>
-    <t>matecconf_newtech22_01001.pdf</t>
-  </si>
-  <si>
-    <t>matecconf_newtech22_01010.pdf</t>
-  </si>
-  <si>
-    <t>matecconf_newtech22_01013.pdf</t>
-  </si>
-  <si>
-    <t>matecconf_newtech22_01014.pdf</t>
-  </si>
-  <si>
-    <t>matecconf_newtech22_01015.pdf</t>
-  </si>
-  <si>
-    <t>Method_for_Profile-Guided_Optimization_of_Android_Applications_Using_Random_Forest.pdf</t>
-  </si>
-  <si>
-    <t>Microgrid_Power_Sharing_Framework_for_Software_Defined_Networking_and_Cybersecurity_Analysis.pdf</t>
-  </si>
-  <si>
-    <t>Multi-Dimensional_Data_Compression_and_Query_Processing_in_Array_Databases.pdf</t>
-  </si>
-  <si>
-    <t>Prasad_2022_Neuromorph._Comput._Eng._2_034003.pdf</t>
-  </si>
-  <si>
-    <t>Predictive_Hybrid_Autoscaling_for_Containerized_Applications.pdf</t>
-  </si>
-  <si>
-    <t>proc2107102.pdf</t>
-  </si>
-  <si>
-    <t>proc2107108.pdf</t>
-  </si>
-  <si>
-    <t>proc2107109.pdf</t>
-  </si>
-  <si>
-    <t>proc2107112.pdf</t>
-  </si>
-  <si>
-    <t>Reduction_of_the_Delays_Within_an_Intrusion_Detection_System_IDS_Based_on_Software_Defined_Networking_SDN.pdf</t>
-  </si>
-  <si>
-    <t>sands20210001.pdf</t>
-  </si>
-  <si>
-    <t>sands20210002.pdf</t>
-  </si>
-  <si>
-    <t>sands20210003.pdf</t>
-  </si>
-  <si>
-    <t>sands20210004.pdf</t>
-  </si>
-  <si>
-    <t>sands20210005.pdf</t>
-  </si>
-  <si>
-    <t>sands20220003.pdf</t>
-  </si>
-  <si>
-    <t>sands20220004.pdf</t>
-  </si>
-  <si>
-    <t>sands20220006.pdf</t>
-  </si>
-  <si>
-    <t>SEM_Image_Quality_Assessment_Based_on_Intuitive_Morphology_and_Deep_Semantic_Features.pdf</t>
-  </si>
-  <si>
-    <t>Shi_2022_Neuromorph._Comput._Eng._2_034010.pdf</t>
-  </si>
-  <si>
-    <t>smdo210012.pdf</t>
-  </si>
-  <si>
-    <t>smdo210013.pdf</t>
-  </si>
-  <si>
-    <t>smdo210025.pdf</t>
-  </si>
-  <si>
-    <t>smdo210041.pdf</t>
-  </si>
-  <si>
-    <t>smdo210083.pdf</t>
-  </si>
-  <si>
-    <t>SMRETO_Stable_Matching_for_Reliable_and_Efficient_Task_Offloading_in_Fog-Enabled_IoT_Networks.pdf</t>
-  </si>
-  <si>
-    <t>Stroobants_2022_Neuromorph._Comput._Eng._2_034005.pdf</t>
-  </si>
-  <si>
-    <t>Sulinskas_2022_Neuromorph._Comput._Eng._2_034008.pdf</t>
-  </si>
-  <si>
-    <t>The_Metaverse_and_Beyond_Implementing_Advanced_Multiverse_Realms_With_Smart_Wearables.pdf</t>
-  </si>
-  <si>
-    <t>Thiede_2022_Mach._Learn.__Sci._Technol._3_035008.pdf</t>
-  </si>
-  <si>
-    <t>Thiele_2022_Mach._Learn.__Sci._Technol._3_035002.pdf</t>
-  </si>
-  <si>
-    <t>Touranakou_2022_Mach._Learn.__Sci._Technol._3_035003.pdf</t>
-  </si>
-  <si>
-    <t>van_Niekerk_2022_Neuromorph._Comput._Eng._2_034012.pdf</t>
-  </si>
-  <si>
-    <t>Zhu_2022_Neuromorph._Comput._Eng._2_034007.pdf</t>
+    <t>Study on the Application of the Holistic Optimization Method of the Manufacturing Process in the Case of a Reduced Instances Database</t>
+  </si>
+  <si>
+    <t>Neural networks for predicting kerf characteristics of CO2 laser-machined FFF PLA/WF plates</t>
+  </si>
+  <si>
+    <t>Advanced Mobility Robustness Optimization Models in Future Mobile Networks Based on
+Machine Learning Solutions</t>
+  </si>
+  <si>
+    <t>Improving parametric neural networks for highenergy physics (and beyond)</t>
+  </si>
+  <si>
+    <t>Audiogram Digitization Tool for Audiological Reports</t>
   </si>
   <si>
     <t>A Comprehensive Study of DNS Operational Issues by Mining DNS Forums</t>
@@ -297,16 +313,6 @@
 Omni-Channel Last-Mile Delivery</t>
   </si>
   <si>
-    <t>Advanced Mobility Robustness Optimization Models in Future Mobile Networks Based on
-Machine Learning Solutions</t>
-  </si>
-  <si>
-    <t>Improving parametric neural networks for highenergy physics (and beyond)</t>
-  </si>
-  <si>
-    <t>Audiogram Digitization Tool for Audiological Reports</t>
-  </si>
-  <si>
     <t>Reliability aspects of binary vector-matrixmultiplications using ReRAM devices</t>
   </si>
   <si>
@@ -319,9 +325,6 @@
     <t>Neural network training with highly incomplete medical datasets</t>
   </si>
   <si>
-    <t>DeepAdversaries: examining the robustness of deep learning models for galaxy morphology classification</t>
-  </si>
-  <si>
     <t>Detection of Cluster Anomalies With ML Techniques</t>
   </si>
   <si>
@@ -349,12 +352,12 @@
     <t xml:space="preserve">Subaging in underparametrized deep neural networks </t>
   </si>
   <si>
+    <t>Two sparsities are better than one: unlocking the performance benefits of sparse–sparse networks</t>
+  </si>
+  <si>
     <t>RG-Flow: a hierarchical and explainable flow model based on renormalization group and sparse prior</t>
   </si>
   <si>
-    <t>Two sparsities are better than one: unlocking the performance benefits of sparse–sparse networks</t>
-  </si>
-  <si>
     <t>Industrial Energy Management System: Design of a Conceptual Framework Using IoT and Big Data</t>
   </si>
   <si>
@@ -416,12 +419,6 @@
   </si>
   <si>
     <t>Machine Learning-Based Early Skip Decision for Intra Subpartition Prediction in VVC</t>
-  </si>
-  <si>
-    <t>Study on the Application of the Holistic Optimization Method of the Manufacturing Process in the Case of a Reduced Instances Database</t>
-  </si>
-  <si>
-    <t>Neural networks for predicting kerf characteristics of CO2 laser-machined FFF PLA/WF plates</t>
   </si>
   <si>
     <t>Digital Twins for Micro Machining</t>
@@ -537,6 +534,24 @@
     <t>Learning torsional eye movements through active efficient coding</t>
   </si>
   <si>
+    <t>DeepAdversaries: examining the robustness of deep learning models for galaxy morphology classification</t>
+  </si>
+  <si>
+    <t>Afteni Cezarina, Afteni Mitica, Frumusanu Gabriel-Radu</t>
+  </si>
+  <si>
+    <t>Fountas N. A., Ninikas K., Chaidas D., Kechagias J., Vaxevanidis N. M.</t>
+  </si>
+  <si>
+    <t>WAHEEB TASHAN, IBRAHEEM SHAYEA, SULTAN ALDIRMAZ-ÇOLAK, OMAR ABDUL AZIZ , ABDULRAQEB ALHAMMADI, YOUSEF IBRAHIM DARADKEH</t>
+  </si>
+  <si>
+    <t>Luca Anzalone, Tommaso Diotalevi, Daniele Bonacorsi</t>
+  </si>
+  <si>
+    <t>FRANÇOIS CHARIH, JAMES R. GREEN</t>
+  </si>
+  <si>
     <t>XIANRAN LIAO, JIACEN XU, QIFAN ZHANG, ZHOU LI</t>
   </si>
   <si>
@@ -549,15 +564,6 @@
     <t>YALI LI</t>
   </si>
   <si>
-    <t>WAHEEB TASHAN, IBRAHEEM SHAYEA, SULTAN ALDIRMAZ-ÇOLAK, OMAR ABDUL AZIZ , ABDULRAQEB ALHAMMADI, YOUSEF IBRAHIM DARADKEH</t>
-  </si>
-  <si>
-    <t>Luca Anzalone, Tommaso Diotalevi, Daniele Bonacorsi</t>
-  </si>
-  <si>
-    <t>FRANÇOIS CHARIH, JAMES R. GREEN</t>
-  </si>
-  <si>
     <t>Christopher Benge</t>
   </si>
   <si>
@@ -568,9 +574,6 @@
   </si>
   <si>
     <t>Yu-Wei Chang, Laura Natali , Oveis Jamialahmadi, Stefano Romeo, Joana B Pereira, Giovanni Volpe</t>
-  </si>
-  <si>
-    <t>Aleksandra Ćiprijanovi,Diana Kafkes,Gregory Snyder,F Javier Sánchez,Gabriel Nathan Perdue,Kevin Pedro,Brian Nord,Sandeep Madireddy,Stefan M Wild</t>
   </si>
   <si>
     <t>JOANNA KOSIŃSKA , MACIEJ TOBIASZ</t>
@@ -602,12 +605,12 @@
     <t>Carolina Herrera Segura,Edison Montoya,Diego Tapias</t>
   </si>
   <si>
+    <t>Kevin Hunter, Lawrence Spracklen, Subutai Ahmad</t>
+  </si>
+  <si>
     <t>Hong-Ye Hu,Dian Wu,Yi-Zhuang You,Bruno Olshausen,Yubei Chen</t>
   </si>
   <si>
-    <t>Kevin Hunter, Lawrence Spracklen, Subutai Ahmad</t>
-  </si>
-  <si>
     <t>MEHAR ULLAH, ARUN NARAYANAN, ANNIKA WOLFF,PEDRO H. J. NARDELLI</t>
   </si>
   <si>
@@ -669,12 +672,6 @@
   </si>
   <si>
     <t>JEEYOON PARK,  BUMYOON KIM, JEEHWAN LEE, BYEUNGWOO JEON</t>
-  </si>
-  <si>
-    <t>Afteni Cezarina, Afteni Mitica, Frumusanu Gabriel-Radu</t>
-  </si>
-  <si>
-    <t>Fountas N. A., Ninikas K., Chaidas D., Kechagias J., Vaxevanidis N. M.</t>
   </si>
   <si>
     <t>Ostasevicius Vytautas, Mikuckyte Sandra, Gaidys Rimvydas, Jurenas Vytautas, Daniulaitis Vytautas</t>
@@ -790,18 +787,21 @@
     <t>Qingpeng Zhu, Chong Zhang, Jochen Triesch, Bertram E Shi</t>
   </si>
   <si>
+    <t>Aleksandra Ćiprijanovi,Diana Kafkes,Gregory Snyder,F Javier Sánchez,Gabriel Nathan Perdue,Kevin Pedro,Brian Nord,Sandeep Madireddy,Stefan M Wild</t>
+  </si>
+  <si>
     <t>19 October 2022</t>
   </si>
   <si>
+    <t>5 October 2022</t>
+  </si>
+  <si>
     <t>14 October 2022</t>
   </si>
   <si>
     <t>17 October 2022</t>
   </si>
   <si>
-    <t>5 October 2022</t>
-  </si>
-  <si>
     <t>22 June 2022</t>
   </si>
   <si>
@@ -814,109 +814,112 @@
     <t>6 July 2022</t>
   </si>
   <si>
+    <t>5 August 2022</t>
+  </si>
+  <si>
+    <t>26 August 2022</t>
+  </si>
+  <si>
+    <t>23 September 2022</t>
+  </si>
+  <si>
+    <t>22 September 2022</t>
+  </si>
+  <si>
+    <t>17 August 2022</t>
+  </si>
+  <si>
+    <t>1 October 2022</t>
+  </si>
+  <si>
+    <t>16 October 2022</t>
+  </si>
+  <si>
+    <t>20 September 2022</t>
+  </si>
+  <si>
+    <t>14 July 2022</t>
+  </si>
+  <si>
+    <t>3 August 2022</t>
+  </si>
+  <si>
+    <t>13 July 2022</t>
+  </si>
+  <si>
+    <t>2022</t>
+  </si>
+  <si>
+    <t>26 September 2022</t>
+  </si>
+  <si>
+    <t>14 September 2022</t>
+  </si>
+  <si>
+    <t>21 September 2022</t>
+  </si>
+  <si>
+    <t>15 July 2022</t>
+  </si>
+  <si>
+    <t>30 August 2022</t>
+  </si>
+  <si>
+    <t>31 August 2022</t>
+  </si>
+  <si>
+    <t>1 July 2022</t>
+  </si>
+  <si>
+    <t>15 September 2022</t>
+  </si>
+  <si>
+    <t>19 July 2022</t>
+  </si>
+  <si>
+    <t>2 September 2022</t>
+  </si>
+  <si>
+    <t>10 October 2022</t>
+  </si>
+  <si>
+    <t>20 August 2022</t>
+  </si>
+  <si>
+    <t>30 September 2022</t>
+  </si>
+  <si>
+    <t>August 2021</t>
+  </si>
+  <si>
+    <t>28 September 2022</t>
+  </si>
+  <si>
+    <t>14 June2022</t>
+  </si>
+  <si>
+    <t>22 July 2022</t>
+  </si>
+  <si>
+    <t>8 August 2022</t>
+  </si>
+  <si>
+    <t>25 July 2022</t>
+  </si>
+  <si>
+    <t>2021</t>
+  </si>
+  <si>
+    <t>18 August 2022</t>
+  </si>
+  <si>
+    <t>7 July 2022</t>
+  </si>
+  <si>
     <t>21 July 2022</t>
   </si>
   <si>
-    <t>5 August 2022</t>
-  </si>
-  <si>
-    <t>26 August 2022</t>
-  </si>
-  <si>
-    <t>23 September 2022</t>
-  </si>
-  <si>
-    <t>22 September 2022</t>
-  </si>
-  <si>
-    <t>17 August 2022</t>
-  </si>
-  <si>
-    <t>1 October 2022</t>
-  </si>
-  <si>
-    <t>16 October 2022</t>
-  </si>
-  <si>
-    <t>20 September 2022</t>
-  </si>
-  <si>
-    <t>3 August 2022</t>
-  </si>
-  <si>
-    <t>14 July 2022</t>
-  </si>
-  <si>
-    <t>13 July 2022</t>
-  </si>
-  <si>
-    <t>2022</t>
-  </si>
-  <si>
-    <t>26 September 2022</t>
-  </si>
-  <si>
-    <t>14 September 2022</t>
-  </si>
-  <si>
-    <t>21 September 2022</t>
-  </si>
-  <si>
-    <t>15 July 2022</t>
-  </si>
-  <si>
-    <t>30 August 2022</t>
-  </si>
-  <si>
-    <t>31 August 2022</t>
-  </si>
-  <si>
-    <t>1 July 2022</t>
-  </si>
-  <si>
-    <t>15 September 2022</t>
-  </si>
-  <si>
-    <t>19 July 2022</t>
-  </si>
-  <si>
-    <t>2 September 2022</t>
-  </si>
-  <si>
-    <t>10 October 2022</t>
-  </si>
-  <si>
-    <t>20 August 2022</t>
-  </si>
-  <si>
-    <t>30 September 2022</t>
-  </si>
-  <si>
-    <t>August 2021</t>
-  </si>
-  <si>
-    <t>28 September 2022</t>
-  </si>
-  <si>
-    <t>14 June2022</t>
-  </si>
-  <si>
-    <t>22 July 2022</t>
-  </si>
-  <si>
-    <t>8 August 2022</t>
-  </si>
-  <si>
-    <t>25 July 2022</t>
-  </si>
-  <si>
-    <t>2021</t>
-  </si>
-  <si>
-    <t>18 August 2022</t>
-  </si>
-  <si>
-    <t>7 July 2022</t>
+    <t>NEWTECH</t>
   </si>
   <si>
     <t>IEEE Access</t>
@@ -929,9 +932,6 @@
   </si>
   <si>
     <t>ICCWCS 2022</t>
-  </si>
-  <si>
-    <t>NEWTECH</t>
   </si>
   <si>
     <t>French-German-Swiss conference on Optimization</t>
@@ -1337,8 +1337,8 @@
       <c r="C2" t="s">
         <v>172</v>
       </c>
-      <c r="D2" t="s">
-        <v>255</v>
+      <c r="D2">
+        <v>2022</v>
       </c>
       <c r="E2" t="s">
         <v>298</v>
@@ -1357,8 +1357,8 @@
       <c r="C3" t="s">
         <v>173</v>
       </c>
-      <c r="D3" t="s">
-        <v>256</v>
+      <c r="D3">
+        <v>2022</v>
       </c>
       <c r="E3" t="s">
         <v>298</v>
@@ -1378,10 +1378,10 @@
         <v>174</v>
       </c>
       <c r="D4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E4" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="F4" t="s">
         <v>306</v>
@@ -1398,10 +1398,10 @@
         <v>175</v>
       </c>
       <c r="D5" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E5" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="F5" t="s">
         <v>306</v>
@@ -1421,7 +1421,7 @@
         <v>255</v>
       </c>
       <c r="E6" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="F6" t="s">
         <v>306</v>
@@ -1438,7 +1438,7 @@
         <v>177</v>
       </c>
       <c r="D7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="E7" t="s">
         <v>299</v>
@@ -1458,10 +1458,10 @@
         <v>178</v>
       </c>
       <c r="D8" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="E8" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="F8" t="s">
         <v>306</v>
@@ -1478,10 +1478,10 @@
         <v>179</v>
       </c>
       <c r="D9" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E9" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F9" t="s">
         <v>306</v>
@@ -1498,7 +1498,7 @@
         <v>180</v>
       </c>
       <c r="D10" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="E10" t="s">
         <v>299</v>
@@ -1518,10 +1518,10 @@
         <v>181</v>
       </c>
       <c r="D11" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E11" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="F11" t="s">
         <v>306</v>
@@ -1538,10 +1538,10 @@
         <v>182</v>
       </c>
       <c r="D12" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E12" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="F12" t="s">
         <v>306</v>
@@ -1558,7 +1558,7 @@
         <v>183</v>
       </c>
       <c r="D13" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E13" t="s">
         <v>299</v>
@@ -1578,10 +1578,10 @@
         <v>184</v>
       </c>
       <c r="D14" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="E14" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="F14" t="s">
         <v>306</v>
@@ -1598,10 +1598,10 @@
         <v>185</v>
       </c>
       <c r="D15" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="E15" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F15" t="s">
         <v>306</v>
@@ -1618,10 +1618,10 @@
         <v>186</v>
       </c>
       <c r="D16" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E16" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="F16" t="s">
         <v>306</v>
@@ -1638,10 +1638,10 @@
         <v>187</v>
       </c>
       <c r="D17" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E17" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="F17" t="s">
         <v>306</v>
@@ -1658,7 +1658,7 @@
         <v>188</v>
       </c>
       <c r="D18" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E18" t="s">
         <v>299</v>
@@ -1678,10 +1678,10 @@
         <v>189</v>
       </c>
       <c r="D19" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E19" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="F19" t="s">
         <v>306</v>
@@ -1698,10 +1698,10 @@
         <v>190</v>
       </c>
       <c r="D20" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E20" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="F20" t="s">
         <v>306</v>
@@ -1718,10 +1718,10 @@
         <v>191</v>
       </c>
       <c r="D21" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E21" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="F21" t="s">
         <v>306</v>
@@ -1738,7 +1738,7 @@
         <v>192</v>
       </c>
       <c r="D22" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E22" t="s">
         <v>299</v>
@@ -1758,10 +1758,10 @@
         <v>193</v>
       </c>
       <c r="D23" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E23" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="F23" t="s">
         <v>306</v>
@@ -1778,10 +1778,10 @@
         <v>194</v>
       </c>
       <c r="D24" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E24" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="F24" t="s">
         <v>306</v>
@@ -1798,10 +1798,10 @@
         <v>195</v>
       </c>
       <c r="D25" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E25" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="F25" t="s">
         <v>306</v>
@@ -1818,10 +1818,10 @@
         <v>196</v>
       </c>
       <c r="D26" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E26" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F26" t="s">
         <v>306</v>
@@ -1838,10 +1838,10 @@
         <v>197</v>
       </c>
       <c r="D27" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E27" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="F27" t="s">
         <v>306</v>
@@ -1858,10 +1858,10 @@
         <v>198</v>
       </c>
       <c r="D28" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E28" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="F28" t="s">
         <v>306</v>
@@ -1878,10 +1878,10 @@
         <v>199</v>
       </c>
       <c r="D29" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E29" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="F29" t="s">
         <v>306</v>
@@ -1898,10 +1898,10 @@
         <v>200</v>
       </c>
       <c r="D30" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E30" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="F30" t="s">
         <v>306</v>
@@ -1918,10 +1918,10 @@
         <v>201</v>
       </c>
       <c r="D31" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E31" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="F31" t="s">
         <v>306</v>
@@ -1938,10 +1938,10 @@
         <v>202</v>
       </c>
       <c r="D32" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E32" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="F32" t="s">
         <v>306</v>
@@ -1958,10 +1958,10 @@
         <v>203</v>
       </c>
       <c r="D33" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E33" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="F33" t="s">
         <v>306</v>
@@ -1978,10 +1978,10 @@
         <v>204</v>
       </c>
       <c r="D34" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E34" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="F34" t="s">
         <v>306</v>
@@ -1998,10 +1998,10 @@
         <v>205</v>
       </c>
       <c r="D35" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E35" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="F35" t="s">
         <v>306</v>
@@ -2018,10 +2018,10 @@
         <v>206</v>
       </c>
       <c r="D36" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E36" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="F36" t="s">
         <v>306</v>
@@ -2038,7 +2038,7 @@
         <v>207</v>
       </c>
       <c r="D37" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E37" t="s">
         <v>299</v>
@@ -2058,10 +2058,10 @@
         <v>208</v>
       </c>
       <c r="D38" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E38" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="F38" t="s">
         <v>306</v>
@@ -2078,10 +2078,10 @@
         <v>209</v>
       </c>
       <c r="D39" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E39" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="F39" t="s">
         <v>306</v>
@@ -2098,7 +2098,7 @@
         <v>210</v>
       </c>
       <c r="D40" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E40" t="s">
         <v>300</v>
@@ -2118,10 +2118,10 @@
         <v>211</v>
       </c>
       <c r="D41" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E41" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="F41" t="s">
         <v>306</v>
@@ -2138,10 +2138,10 @@
         <v>212</v>
       </c>
       <c r="D42" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E42" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="F42" t="s">
         <v>306</v>
@@ -2158,7 +2158,7 @@
         <v>213</v>
       </c>
       <c r="D43" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E43" t="s">
         <v>300</v>
@@ -2178,10 +2178,10 @@
         <v>214</v>
       </c>
       <c r="D44" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="E44" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="F44" t="s">
         <v>306</v>
@@ -2198,10 +2198,10 @@
         <v>215</v>
       </c>
       <c r="D45" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="E45" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="F45" t="s">
         <v>306</v>
@@ -2218,10 +2218,10 @@
         <v>216</v>
       </c>
       <c r="D46" t="s">
-        <v>275</v>
+        <v>285</v>
       </c>
       <c r="E46" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F46" t="s">
         <v>306</v>
@@ -2238,10 +2238,10 @@
         <v>217</v>
       </c>
       <c r="D47" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E47" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="F47" t="s">
         <v>306</v>
@@ -2258,10 +2258,10 @@
         <v>218</v>
       </c>
       <c r="D48" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E48" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="F48" t="s">
         <v>306</v>
@@ -2278,10 +2278,10 @@
         <v>219</v>
       </c>
       <c r="D49" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E49" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="F49" t="s">
         <v>306</v>
@@ -2298,10 +2298,10 @@
         <v>220</v>
       </c>
       <c r="D50" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="E50" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F50" t="s">
         <v>306</v>
@@ -2318,10 +2318,10 @@
         <v>221</v>
       </c>
       <c r="D51" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="E51" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="F51" t="s">
         <v>306</v>
@@ -2341,7 +2341,7 @@
         <v>287</v>
       </c>
       <c r="E52" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="F52" t="s">
         <v>306</v>
@@ -2358,10 +2358,10 @@
         <v>223</v>
       </c>
       <c r="D53" t="s">
-        <v>288</v>
+        <v>271</v>
       </c>
       <c r="E53" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="F53" t="s">
         <v>306</v>
@@ -2378,10 +2378,10 @@
         <v>224</v>
       </c>
       <c r="D54" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="E54" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F54" t="s">
         <v>306</v>
@@ -2398,10 +2398,10 @@
         <v>225</v>
       </c>
       <c r="D55" t="s">
-        <v>271</v>
+        <v>288</v>
       </c>
       <c r="E55" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="F55" t="s">
         <v>306</v>
@@ -2418,7 +2418,7 @@
         <v>226</v>
       </c>
       <c r="D56" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E56" t="s">
         <v>303</v>
@@ -2438,7 +2438,7 @@
         <v>227</v>
       </c>
       <c r="D57" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E57" t="s">
         <v>303</v>
@@ -2458,7 +2458,7 @@
         <v>228</v>
       </c>
       <c r="D58" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E58" t="s">
         <v>303</v>
@@ -2481,7 +2481,7 @@
         <v>289</v>
       </c>
       <c r="E59" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="F59" t="s">
         <v>306</v>
@@ -2501,7 +2501,7 @@
         <v>290</v>
       </c>
       <c r="E60" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="F60" t="s">
         <v>306</v>
@@ -2518,7 +2518,7 @@
         <v>231</v>
       </c>
       <c r="D61" t="s">
-        <v>291</v>
+        <v>259</v>
       </c>
       <c r="E61" t="s">
         <v>304</v>
@@ -2538,7 +2538,7 @@
         <v>232</v>
       </c>
       <c r="D62" t="s">
-        <v>259</v>
+        <v>291</v>
       </c>
       <c r="E62" t="s">
         <v>304</v>
@@ -2558,7 +2558,7 @@
         <v>233</v>
       </c>
       <c r="D63" t="s">
-        <v>292</v>
+        <v>259</v>
       </c>
       <c r="E63" t="s">
         <v>304</v>
@@ -2578,7 +2578,7 @@
         <v>234</v>
       </c>
       <c r="D64" t="s">
-        <v>259</v>
+        <v>291</v>
       </c>
       <c r="E64" t="s">
         <v>304</v>
@@ -2598,7 +2598,7 @@
         <v>235</v>
       </c>
       <c r="D65" t="s">
-        <v>292</v>
+        <v>259</v>
       </c>
       <c r="E65" t="s">
         <v>304</v>
@@ -2618,7 +2618,7 @@
         <v>236</v>
       </c>
       <c r="D66" t="s">
-        <v>259</v>
+        <v>292</v>
       </c>
       <c r="E66" t="s">
         <v>304</v>
@@ -2658,10 +2658,10 @@
         <v>238</v>
       </c>
       <c r="D68" t="s">
-        <v>294</v>
+        <v>261</v>
       </c>
       <c r="E68" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="F68" t="s">
         <v>306</v>
@@ -2678,10 +2678,10 @@
         <v>239</v>
       </c>
       <c r="D69" t="s">
-        <v>261</v>
+        <v>284</v>
       </c>
       <c r="E69" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="F69" t="s">
         <v>306</v>
@@ -2698,10 +2698,10 @@
         <v>240</v>
       </c>
       <c r="D70" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="E70" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="F70" t="s">
         <v>306</v>
@@ -2718,7 +2718,7 @@
         <v>241</v>
       </c>
       <c r="D71" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E71" t="s">
         <v>305</v>
@@ -2738,7 +2738,7 @@
         <v>242</v>
       </c>
       <c r="D72" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E72" t="s">
         <v>305</v>
@@ -2758,7 +2758,7 @@
         <v>243</v>
       </c>
       <c r="D73" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E73" t="s">
         <v>305</v>
@@ -2778,7 +2778,7 @@
         <v>244</v>
       </c>
       <c r="D74" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E74" t="s">
         <v>305</v>
@@ -2798,10 +2798,10 @@
         <v>245</v>
       </c>
       <c r="D75" t="s">
-        <v>295</v>
+        <v>255</v>
       </c>
       <c r="E75" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="F75" t="s">
         <v>306</v>
@@ -2818,10 +2818,10 @@
         <v>246</v>
       </c>
       <c r="D76" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="E76" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="F76" t="s">
         <v>306</v>
@@ -2838,10 +2838,10 @@
         <v>247</v>
       </c>
       <c r="D77" t="s">
-        <v>264</v>
+        <v>295</v>
       </c>
       <c r="E77" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="F77" t="s">
         <v>306</v>
@@ -2858,10 +2858,10 @@
         <v>248</v>
       </c>
       <c r="D78" t="s">
-        <v>296</v>
+        <v>255</v>
       </c>
       <c r="E78" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F78" t="s">
         <v>306</v>
@@ -2878,10 +2878,10 @@
         <v>249</v>
       </c>
       <c r="D79" t="s">
-        <v>255</v>
+        <v>293</v>
       </c>
       <c r="E79" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="F79" t="s">
         <v>306</v>
@@ -2898,10 +2898,10 @@
         <v>250</v>
       </c>
       <c r="D80" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="E80" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="F80" t="s">
         <v>306</v>
@@ -2918,10 +2918,10 @@
         <v>251</v>
       </c>
       <c r="D81" t="s">
-        <v>297</v>
+        <v>273</v>
       </c>
       <c r="E81" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="F81" t="s">
         <v>306</v>
@@ -2938,10 +2938,10 @@
         <v>252</v>
       </c>
       <c r="D82" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="E82" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="F82" t="s">
         <v>306</v>
@@ -2958,10 +2958,10 @@
         <v>253</v>
       </c>
       <c r="D83" t="s">
-        <v>283</v>
+        <v>295</v>
       </c>
       <c r="E83" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="F83" t="s">
         <v>306</v>
@@ -2978,7 +2978,7 @@
         <v>254</v>
       </c>
       <c r="D84" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E84" t="s">
         <v>300</v>

--- a/metadata_list.xlsx
+++ b/metadata_list.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="312">
   <si>
     <t>PDF</t>
   </si>
@@ -281,6 +281,9 @@
   </si>
   <si>
     <t>Ćiprijanović_2022_Mach._Learn.__Sci._Technol._3_035007.pdf</t>
+  </si>
+  <si>
+    <t>Energy efficiency_Test.pdf</t>
   </si>
   <si>
     <t>Study on the Application of the Holistic Optimization Method of the Manufacturing Process in the Case of a Reduced Instances Database</t>
@@ -535,6 +538,9 @@
   </si>
   <si>
     <t>DeepAdversaries: examining the robustness of deep learning models for galaxy morphology classification</t>
+  </si>
+  <si>
+    <t>Energy efficiency</t>
   </si>
   <si>
     <t>Afteni Cezarina, Afteni Mitica, Frumusanu Gabriel-Radu</t>
@@ -790,6 +796,9 @@
     <t>Aleksandra Ćiprijanovi,Diana Kafkes,Gregory Snyder,F Javier Sánchez,Gabriel Nathan Perdue,Kevin Pedro,Brian Nord,Sandeep Madireddy,Stefan M Wild</t>
   </si>
   <si>
+    <t>Mueen Uddin, Azizah Abdul Rahman</t>
+  </si>
+  <si>
     <t>19 October 2022</t>
   </si>
   <si>
@@ -919,6 +928,9 @@
     <t>21 July 2022</t>
   </si>
   <si>
+    <t>2012</t>
+  </si>
+  <si>
     <t>NEWTECH</t>
   </si>
   <si>
@@ -941,6 +953,9 @@
   </si>
   <si>
     <t>International Journal for Simulation and Multidisciplinary Design Optimization</t>
+  </si>
+  <si>
+    <t>Renewable and Sustainable Energy Reviews</t>
   </si>
   <si>
     <t>x</t>
@@ -1301,7 +1316,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F84"/>
+  <dimension ref="A1:F86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1332,19 +1347,19 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D2">
         <v>2022</v>
       </c>
       <c r="E2" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="F2" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1352,19 +1367,19 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C3" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D3">
         <v>2022</v>
       </c>
       <c r="E3" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="F3" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1372,19 +1387,19 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C4" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D4" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="E4" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="F4" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1392,19 +1407,19 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C5" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D5" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="E5" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="F5" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1412,19 +1427,19 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C6" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D6" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="E6" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="F6" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1432,19 +1447,19 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D7" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="E7" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="F7" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1452,19 +1467,19 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C8" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D8" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="E8" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="F8" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1472,19 +1487,19 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C9" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D9" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="E9" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="F9" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1492,19 +1507,19 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C10" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D10" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="E10" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="F10" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1512,19 +1527,19 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C11" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D11" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="E11" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="F11" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1532,19 +1547,19 @@
         <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C12" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D12" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="E12" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="F12" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1552,19 +1567,19 @@
         <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C13" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D13" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E13" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="F13" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1572,19 +1587,19 @@
         <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C14" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D14" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="E14" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="F14" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1592,19 +1607,19 @@
         <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C15" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D15" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="E15" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="F15" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1612,19 +1627,19 @@
         <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C16" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D16" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="E16" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="F16" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1632,19 +1647,19 @@
         <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C17" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D17" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="E17" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="F17" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1652,19 +1667,19 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C18" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D18" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="E18" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="F18" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1672,19 +1687,19 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C19" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D19" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="E19" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="F19" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1692,19 +1707,19 @@
         <v>24</v>
       </c>
       <c r="B20" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C20" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D20" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="E20" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="F20" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1712,19 +1727,19 @@
         <v>25</v>
       </c>
       <c r="B21" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C21" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D21" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="E21" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="F21" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1732,19 +1747,19 @@
         <v>26</v>
       </c>
       <c r="B22" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C22" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D22" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="E22" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="F22" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1752,19 +1767,19 @@
         <v>27</v>
       </c>
       <c r="B23" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C23" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D23" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="E23" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="F23" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1772,19 +1787,19 @@
         <v>28</v>
       </c>
       <c r="B24" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C24" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D24" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="E24" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="F24" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1792,19 +1807,19 @@
         <v>29</v>
       </c>
       <c r="B25" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C25" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D25" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="E25" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="F25" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1812,19 +1827,19 @@
         <v>30</v>
       </c>
       <c r="B26" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C26" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D26" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="E26" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="F26" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1832,19 +1847,19 @@
         <v>31</v>
       </c>
       <c r="B27" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C27" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D27" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="E27" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="F27" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1852,19 +1867,19 @@
         <v>32</v>
       </c>
       <c r="B28" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C28" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D28" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="E28" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="F28" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1872,19 +1887,19 @@
         <v>33</v>
       </c>
       <c r="B29" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C29" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D29" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="E29" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="F29" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1892,19 +1907,19 @@
         <v>34</v>
       </c>
       <c r="B30" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C30" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D30" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="E30" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="F30" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1912,19 +1927,19 @@
         <v>35</v>
       </c>
       <c r="B31" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C31" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D31" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="E31" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="F31" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1932,19 +1947,19 @@
         <v>36</v>
       </c>
       <c r="B32" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C32" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D32" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="E32" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="F32" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1952,19 +1967,19 @@
         <v>37</v>
       </c>
       <c r="B33" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C33" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D33" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="E33" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="F33" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1972,19 +1987,19 @@
         <v>38</v>
       </c>
       <c r="B34" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C34" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D34" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="E34" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="F34" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1992,19 +2007,19 @@
         <v>39</v>
       </c>
       <c r="B35" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C35" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D35" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="E35" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="F35" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -2012,19 +2027,19 @@
         <v>40</v>
       </c>
       <c r="B36" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C36" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D36" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="E36" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="F36" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -2032,19 +2047,19 @@
         <v>41</v>
       </c>
       <c r="B37" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C37" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D37" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E37" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="F37" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -2052,19 +2067,19 @@
         <v>42</v>
       </c>
       <c r="B38" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C38" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D38" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="E38" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="F38" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -2072,19 +2087,19 @@
         <v>43</v>
       </c>
       <c r="B39" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C39" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D39" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="E39" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="F39" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -2092,19 +2107,19 @@
         <v>44</v>
       </c>
       <c r="B40" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C40" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D40" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="E40" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="F40" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -2112,19 +2127,19 @@
         <v>45</v>
       </c>
       <c r="B41" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C41" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D41" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="E41" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="F41" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -2132,19 +2147,19 @@
         <v>46</v>
       </c>
       <c r="B42" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C42" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D42" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="E42" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="F42" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2152,19 +2167,19 @@
         <v>47</v>
       </c>
       <c r="B43" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C43" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D43" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="E43" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="F43" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2172,19 +2187,19 @@
         <v>48</v>
       </c>
       <c r="B44" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C44" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D44" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="E44" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="F44" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2192,19 +2207,19 @@
         <v>49</v>
       </c>
       <c r="B45" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C45" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D45" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="E45" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="F45" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2212,19 +2227,19 @@
         <v>50</v>
       </c>
       <c r="B46" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C46" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D46" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="E46" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="F46" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2232,19 +2247,19 @@
         <v>51</v>
       </c>
       <c r="B47" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C47" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D47" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="E47" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="F47" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2252,19 +2267,19 @@
         <v>52</v>
       </c>
       <c r="B48" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C48" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D48" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="E48" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="F48" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2272,19 +2287,19 @@
         <v>53</v>
       </c>
       <c r="B49" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C49" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D49" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="E49" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="F49" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2292,19 +2307,19 @@
         <v>54</v>
       </c>
       <c r="B50" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C50" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D50" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E50" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="F50" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2312,19 +2327,19 @@
         <v>55</v>
       </c>
       <c r="B51" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C51" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D51" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="E51" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="F51" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2332,19 +2347,19 @@
         <v>56</v>
       </c>
       <c r="B52" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C52" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D52" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="E52" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="F52" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2352,19 +2367,19 @@
         <v>57</v>
       </c>
       <c r="B53" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C53" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D53" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="E53" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="F53" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2372,19 +2387,19 @@
         <v>58</v>
       </c>
       <c r="B54" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C54" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D54" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="E54" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="F54" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2392,19 +2407,19 @@
         <v>59</v>
       </c>
       <c r="B55" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C55" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D55" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="E55" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="F55" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2412,19 +2427,19 @@
         <v>60</v>
       </c>
       <c r="B56" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C56" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D56" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="E56" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="F56" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2432,19 +2447,19 @@
         <v>61</v>
       </c>
       <c r="B57" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C57" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="D57" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="E57" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="F57" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2452,19 +2467,19 @@
         <v>62</v>
       </c>
       <c r="B58" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C58" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D58" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="E58" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="F58" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2472,19 +2487,19 @@
         <v>63</v>
       </c>
       <c r="B59" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C59" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D59" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="E59" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="F59" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2492,19 +2507,19 @@
         <v>64</v>
       </c>
       <c r="B60" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C60" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D60" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="E60" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="F60" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2512,19 +2527,19 @@
         <v>65</v>
       </c>
       <c r="B61" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C61" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D61" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="E61" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="F61" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2532,19 +2547,19 @@
         <v>66</v>
       </c>
       <c r="B62" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C62" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D62" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="E62" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="F62" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2552,19 +2567,19 @@
         <v>67</v>
       </c>
       <c r="B63" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C63" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D63" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="E63" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="F63" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2572,19 +2587,19 @@
         <v>68</v>
       </c>
       <c r="B64" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C64" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D64" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="E64" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="F64" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2592,19 +2607,19 @@
         <v>69</v>
       </c>
       <c r="B65" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C65" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D65" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="E65" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="F65" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2612,19 +2627,19 @@
         <v>70</v>
       </c>
       <c r="B66" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C66" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D66" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="E66" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="F66" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2632,19 +2647,19 @@
         <v>71</v>
       </c>
       <c r="B67" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C67" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D67" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="E67" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="F67" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2652,19 +2667,19 @@
         <v>72</v>
       </c>
       <c r="B68" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C68" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D68" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E68" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="F68" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2672,19 +2687,19 @@
         <v>73</v>
       </c>
       <c r="B69" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C69" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D69" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="E69" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="F69" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2692,19 +2707,19 @@
         <v>74</v>
       </c>
       <c r="B70" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C70" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D70" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="E70" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="F70" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2712,19 +2727,19 @@
         <v>75</v>
       </c>
       <c r="B71" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C71" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D71" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="E71" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="F71" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2732,19 +2747,19 @@
         <v>76</v>
       </c>
       <c r="B72" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C72" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="D72" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="E72" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="F72" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2752,19 +2767,19 @@
         <v>77</v>
       </c>
       <c r="B73" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C73" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D73" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="E73" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="F73" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2772,19 +2787,19 @@
         <v>78</v>
       </c>
       <c r="B74" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C74" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D74" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="E74" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="F74" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2792,19 +2807,19 @@
         <v>79</v>
       </c>
       <c r="B75" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C75" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D75" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="E75" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="F75" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2812,19 +2827,19 @@
         <v>80</v>
       </c>
       <c r="B76" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C76" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D76" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="E76" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="F76" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2832,19 +2847,19 @@
         <v>81</v>
       </c>
       <c r="B77" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C77" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D77" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="E77" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="F77" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2852,19 +2867,19 @@
         <v>82</v>
       </c>
       <c r="B78" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C78" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D78" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="E78" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="F78" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2872,19 +2887,19 @@
         <v>83</v>
       </c>
       <c r="B79" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C79" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="D79" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="E79" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="F79" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2892,19 +2907,19 @@
         <v>84</v>
       </c>
       <c r="B80" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C80" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D80" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="E80" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="F80" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2912,19 +2927,19 @@
         <v>85</v>
       </c>
       <c r="B81" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C81" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D81" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="E81" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="F81" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2932,19 +2947,19 @@
         <v>86</v>
       </c>
       <c r="B82" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C82" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D82" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="E82" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="F82" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2952,19 +2967,19 @@
         <v>87</v>
       </c>
       <c r="B83" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C83" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D83" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="E83" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="F83" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2972,19 +2987,53 @@
         <v>88</v>
       </c>
       <c r="B84" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C84" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D84" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="E84" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="F84" t="s">
-        <v>306</v>
+        <v>311</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85" t="s">
+        <v>8</v>
+      </c>
+      <c r="B85" t="s">
+        <v>92</v>
+      </c>
+      <c r="C85" t="s">
+        <v>176</v>
+      </c>
+      <c r="D85" t="s">
+        <v>258</v>
+      </c>
+      <c r="E85" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86" t="s">
+        <v>89</v>
+      </c>
+      <c r="B86" t="s">
+        <v>173</v>
+      </c>
+      <c r="C86" t="s">
+        <v>257</v>
+      </c>
+      <c r="D86" t="s">
+        <v>301</v>
+      </c>
+      <c r="E86" t="s">
+        <v>310</v>
       </c>
     </row>
   </sheetData>

--- a/metadata_list.xlsx
+++ b/metadata_list.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="307">
   <si>
     <t>PDF</t>
   </si>
@@ -34,141 +34,141 @@
     <t>Check</t>
   </si>
   <si>
+    <t>Advanced_Mobility_Robustness_Optimization_Models_in_Future_Mobile_Networks_Based_on_Machine_Learning_Solutions.pdf</t>
+  </si>
+  <si>
+    <t>Anzalone_2022_Mach._Learn.__Sci._Technol._3_035017.pdf</t>
+  </si>
+  <si>
+    <t>Audiogram_Digitization_Tool_for_Audiological_Reports.pdf</t>
+  </si>
+  <si>
+    <t>A_Comprehensive_Study_of_DNS_Operational_Issues_by_Mining_DNS_Forums.pdf</t>
+  </si>
+  <si>
+    <t>A_Modified_Evolutionary_Algorithm_for_Generating_the_Cycling_Training_Routes.pdf</t>
+  </si>
+  <si>
+    <t>A_Novel_Similarity-Based_Multi-Attribute_Group_Decision-Making_Method_in_a_Probabilistic_Hesitant_Fuzzy_Environment.pdf</t>
+  </si>
+  <si>
+    <t>A_Selective_Many-to-Many_Pickup_and_Delivery_Problem_With_Handling_Cost_in_the_Omni-Channel_Last-Mile_Delivery.pdf</t>
+  </si>
+  <si>
+    <t>Bengel_2022_Neuromorph._Comput._Eng._2_034001.pdf</t>
+  </si>
+  <si>
+    <t>Bhatia_2022_Mach._Learn.__Sci._Technol._3_035010.pdf</t>
+  </si>
+  <si>
+    <t>Carbon_Footprint_vs_Energy_Optimization_in_IoT_Network_Deployments.pdf</t>
+  </si>
+  <si>
+    <t>Chang_2022_Mach._Learn.__Sci._Technol._3_035001.pdf</t>
+  </si>
+  <si>
+    <t>Detection_of_Cluster_Anomalies_With_ML_Techniques.pdf</t>
+  </si>
+  <si>
+    <t>Du_2022_Neuromorph._Comput._Eng._2_034006.pdf</t>
+  </si>
+  <si>
+    <t>Dynamic_Decomposition_of_Service_Function_Chain_Using_a_Deep_Reinforcement_Learning_Approach.pdf</t>
+  </si>
+  <si>
+    <t>Explainable_Computer-Aided_Detection_of_Obstructive_Sleep_Apnea_and_Depression.pdf</t>
+  </si>
+  <si>
+    <t>Fabregat_2022_Mach._Learn.__Sci._Technol._3_035015.pdf</t>
+  </si>
+  <si>
+    <t>Fault-Tolerant_Ad_Hoc_On-Demand_Routing_Protocol_for_Mobile_Ad_Hoc_Networks.pdf</t>
+  </si>
+  <si>
+    <t>Features-Based_IoT_Security_Authentication_Framework_Using_Statistical_Aggregation_Entropy_and_MOORA_Approaches.pdf</t>
+  </si>
+  <si>
+    <t>GhostLeg_Selective_Memory_Coalescing_for_Secure_GPU_Architecture.pdf</t>
+  </si>
+  <si>
+    <t>Herrera_Segura_2022_Mach._Learn.__Sci._Technol._3_035013.pdf</t>
+  </si>
+  <si>
+    <t>Hunter_2022_Neuromorph._Comput._Eng._2_034004.pdf</t>
+  </si>
+  <si>
+    <t>Hu_2022_Mach._Learn.__Sci._Technol._3_035009.pdf</t>
+  </si>
+  <si>
+    <t>Industrial_Energy_Management_System_Design_of_a_Conceptual_Framework_Using_IoT_and_Big_Data.pdf</t>
+  </si>
+  <si>
+    <t>itmconf_iccwcs2022_03001.pdf</t>
+  </si>
+  <si>
+    <t>itmconf_iccwcs2022_03002.pdf</t>
+  </si>
+  <si>
+    <t>itmconf_iccwcs2022_03003.pdf</t>
+  </si>
+  <si>
+    <t>itmconf_iccwcs2022_03004.pdf</t>
+  </si>
+  <si>
+    <t>itmconf_iccwcs2022_03005.pdf</t>
+  </si>
+  <si>
+    <t>itmconf_iccwcs2022_03006.pdf</t>
+  </si>
+  <si>
+    <t>itmconf_iccwcs2022_03007.pdf</t>
+  </si>
+  <si>
+    <t>itmconf_iccwcs2022_04001.pdf</t>
+  </si>
+  <si>
+    <t>Jha_2022_Mach._Learn.__Sci._Technol._3_035016.pdf</t>
+  </si>
+  <si>
+    <t>Kahn_2022_Mach._Learn.__Sci._Technol._3_035012.pdf</t>
+  </si>
+  <si>
+    <t>Kinematic_Optimization_of_6DOF_Serial_Robot_Arms_by_Bio-Inspired_Algorithms.pdf</t>
+  </si>
+  <si>
+    <t>Kiss_2022_Mach._Learn.__Sci._Technol._3_035004.pdf</t>
+  </si>
+  <si>
+    <t>Krippendorf_2022_Mach._Learn.__Sci._Technol._3_035011.pdf</t>
+  </si>
+  <si>
+    <t>Larfors_2022_Mach._Learn.__Sci._Technol._3_035014.pdf</t>
+  </si>
+  <si>
+    <t>Leroux_2022_Neuromorph._Comput._Eng._2_034002.pdf</t>
+  </si>
+  <si>
+    <t>Liu_2022_Neuromorph._Comput._Eng._2_034013.pdf</t>
+  </si>
+  <si>
+    <t>Lollie_2022_Mach._Learn.__Sci._Technol._3_035006.pdf</t>
+  </si>
+  <si>
+    <t>Lombo_2022_Neuromorph._Comput._Eng._2_034011.pdf</t>
+  </si>
+  <si>
+    <t>Lucibello_2022_Mach._Learn.__Sci._Technol._3_035005.pdf</t>
+  </si>
+  <si>
+    <t>Machine_Learning-Based_Early_Skip_Decision_for_Intra_Subpartition_Prediction_in_VVC.pdf</t>
+  </si>
+  <si>
     <t>matecconf_newtech22_01001.pdf</t>
   </si>
   <si>
     <t>matecconf_newtech22_01010.pdf</t>
   </si>
   <si>
-    <t>Advanced_Mobility_Robustness_Optimization_Models_in_Future_Mobile_Networks_Based_on_Machine_Learning_Solutions.pdf</t>
-  </si>
-  <si>
-    <t>Anzalone_2022_Mach._Learn.__Sci._Technol._3_035017.pdf</t>
-  </si>
-  <si>
-    <t>Audiogram_Digitization_Tool_for_Audiological_Reports.pdf</t>
-  </si>
-  <si>
-    <t>A_Comprehensive_Study_of_DNS_Operational_Issues_by_Mining_DNS_Forums.pdf</t>
-  </si>
-  <si>
-    <t>A_Modified_Evolutionary_Algorithm_for_Generating_the_Cycling_Training_Routes.pdf</t>
-  </si>
-  <si>
-    <t>A_Novel_Similarity-Based_Multi-Attribute_Group_Decision-Making_Method_in_a_Probabilistic_Hesitant_Fuzzy_Environment.pdf</t>
-  </si>
-  <si>
-    <t>A_Selective_Many-to-Many_Pickup_and_Delivery_Problem_With_Handling_Cost_in_the_Omni-Channel_Last-Mile_Delivery.pdf</t>
-  </si>
-  <si>
-    <t>Bengel_2022_Neuromorph._Comput._Eng._2_034001.pdf</t>
-  </si>
-  <si>
-    <t>Bhatia_2022_Mach._Learn.__Sci._Technol._3_035010.pdf</t>
-  </si>
-  <si>
-    <t>Carbon_Footprint_vs_Energy_Optimization_in_IoT_Network_Deployments.pdf</t>
-  </si>
-  <si>
-    <t>Chang_2022_Mach._Learn.__Sci._Technol._3_035001.pdf</t>
-  </si>
-  <si>
-    <t>Detection_of_Cluster_Anomalies_With_ML_Techniques.pdf</t>
-  </si>
-  <si>
-    <t>Du_2022_Neuromorph._Comput._Eng._2_034006.pdf</t>
-  </si>
-  <si>
-    <t>Dynamic_Decomposition_of_Service_Function_Chain_Using_a_Deep_Reinforcement_Learning_Approach.pdf</t>
-  </si>
-  <si>
-    <t>Explainable_Computer-Aided_Detection_of_Obstructive_Sleep_Apnea_and_Depression.pdf</t>
-  </si>
-  <si>
-    <t>Fabregat_2022_Mach._Learn.__Sci._Technol._3_035015.pdf</t>
-  </si>
-  <si>
-    <t>Fault-Tolerant_Ad_Hoc_On-Demand_Routing_Protocol_for_Mobile_Ad_Hoc_Networks.pdf</t>
-  </si>
-  <si>
-    <t>Features-Based_IoT_Security_Authentication_Framework_Using_Statistical_Aggregation_Entropy_and_MOORA_Approaches.pdf</t>
-  </si>
-  <si>
-    <t>GhostLeg_Selective_Memory_Coalescing_for_Secure_GPU_Architecture.pdf</t>
-  </si>
-  <si>
-    <t>Herrera_Segura_2022_Mach._Learn.__Sci._Technol._3_035013.pdf</t>
-  </si>
-  <si>
-    <t>Hunter_2022_Neuromorph._Comput._Eng._2_034004.pdf</t>
-  </si>
-  <si>
-    <t>Hu_2022_Mach._Learn.__Sci._Technol._3_035009.pdf</t>
-  </si>
-  <si>
-    <t>Industrial_Energy_Management_System_Design_of_a_Conceptual_Framework_Using_IoT_and_Big_Data.pdf</t>
-  </si>
-  <si>
-    <t>itmconf_iccwcs2022_03001.pdf</t>
-  </si>
-  <si>
-    <t>itmconf_iccwcs2022_03002.pdf</t>
-  </si>
-  <si>
-    <t>itmconf_iccwcs2022_03003.pdf</t>
-  </si>
-  <si>
-    <t>itmconf_iccwcs2022_03004.pdf</t>
-  </si>
-  <si>
-    <t>itmconf_iccwcs2022_03005.pdf</t>
-  </si>
-  <si>
-    <t>itmconf_iccwcs2022_03006.pdf</t>
-  </si>
-  <si>
-    <t>itmconf_iccwcs2022_03007.pdf</t>
-  </si>
-  <si>
-    <t>itmconf_iccwcs2022_04001.pdf</t>
-  </si>
-  <si>
-    <t>Jha_2022_Mach._Learn.__Sci._Technol._3_035016.pdf</t>
-  </si>
-  <si>
-    <t>Kahn_2022_Mach._Learn.__Sci._Technol._3_035012.pdf</t>
-  </si>
-  <si>
-    <t>Kinematic_Optimization_of_6DOF_Serial_Robot_Arms_by_Bio-Inspired_Algorithms.pdf</t>
-  </si>
-  <si>
-    <t>Kiss_2022_Mach._Learn.__Sci._Technol._3_035004.pdf</t>
-  </si>
-  <si>
-    <t>Krippendorf_2022_Mach._Learn.__Sci._Technol._3_035011.pdf</t>
-  </si>
-  <si>
-    <t>Larfors_2022_Mach._Learn.__Sci._Technol._3_035014.pdf</t>
-  </si>
-  <si>
-    <t>Leroux_2022_Neuromorph._Comput._Eng._2_034002.pdf</t>
-  </si>
-  <si>
-    <t>Liu_2022_Neuromorph._Comput._Eng._2_034013.pdf</t>
-  </si>
-  <si>
-    <t>Lollie_2022_Mach._Learn.__Sci._Technol._3_035006.pdf</t>
-  </si>
-  <si>
-    <t>Lombo_2022_Neuromorph._Comput._Eng._2_034011.pdf</t>
-  </si>
-  <si>
-    <t>Lucibello_2022_Mach._Learn.__Sci._Technol._3_035005.pdf</t>
-  </si>
-  <si>
-    <t>Machine_Learning-Based_Early_Skip_Decision_for_Intra_Subpartition_Prediction_in_VVC.pdf</t>
-  </si>
-  <si>
     <t>matecconf_newtech22_01013.pdf</t>
   </si>
   <si>
@@ -281,15 +281,6 @@
   </si>
   <si>
     <t>Ćiprijanović_2022_Mach._Learn.__Sci._Technol._3_035007.pdf</t>
-  </si>
-  <si>
-    <t>Energy efficiency_Test.pdf</t>
-  </si>
-  <si>
-    <t>Study on the Application of the Holistic Optimization Method of the Manufacturing Process in the Case of a Reduced Instances Database</t>
-  </si>
-  <si>
-    <t>Neural networks for predicting kerf characteristics of CO2 laser-machined FFF PLA/WF plates</t>
   </si>
   <si>
     <t>Advanced Mobility Robustness Optimization Models in Future Mobile Networks Based on
@@ -424,6 +415,12 @@
     <t>Machine Learning-Based Early Skip Decision for Intra Subpartition Prediction in VVC</t>
   </si>
   <si>
+    <t>Study on the Application of the Holistic Optimization Method of the Manufacturing Process in the Case of a Reduced Instances Database</t>
+  </si>
+  <si>
+    <t>Neural networks for predicting kerf characteristics of CO2 laser-machined FFF PLA/WF plates</t>
+  </si>
+  <si>
     <t>Digital Twins for Micro Machining</t>
   </si>
   <si>
@@ -538,15 +535,6 @@
   </si>
   <si>
     <t>DeepAdversaries: examining the robustness of deep learning models for galaxy morphology classification</t>
-  </si>
-  <si>
-    <t>Energy efficiency</t>
-  </si>
-  <si>
-    <t>Afteni Cezarina, Afteni Mitica, Frumusanu Gabriel-Radu</t>
-  </si>
-  <si>
-    <t>Fountas N. A., Ninikas K., Chaidas D., Kechagias J., Vaxevanidis N. M.</t>
   </si>
   <si>
     <t>WAHEEB TASHAN, IBRAHEEM SHAYEA, SULTAN ALDIRMAZ-ÇOLAK, OMAR ABDUL AZIZ , ABDULRAQEB ALHAMMADI, YOUSEF IBRAHIM DARADKEH</t>
@@ -680,6 +668,12 @@
     <t>JEEYOON PARK,  BUMYOON KIM, JEEHWAN LEE, BYEUNGWOO JEON</t>
   </si>
   <si>
+    <t>Afteni Cezarina, Afteni Mitica, Frumusanu Gabriel-Radu</t>
+  </si>
+  <si>
+    <t>Fountas N. A., Ninikas K., Chaidas D., Kechagias J., Vaxevanidis N. M.</t>
+  </si>
+  <si>
     <t>Ostasevicius Vytautas, Mikuckyte Sandra, Gaidys Rimvydas, Jurenas Vytautas, Daniulaitis Vytautas</t>
   </si>
   <si>
@@ -796,9 +790,6 @@
     <t>Aleksandra Ćiprijanovi,Diana Kafkes,Gregory Snyder,F Javier Sánchez,Gabriel Nathan Perdue,Kevin Pedro,Brian Nord,Sandeep Madireddy,Stefan M Wild</t>
   </si>
   <si>
-    <t>Mueen Uddin, Azizah Abdul Rahman</t>
-  </si>
-  <si>
     <t>19 October 2022</t>
   </si>
   <si>
@@ -928,24 +919,21 @@
     <t>21 July 2022</t>
   </si>
   <si>
-    <t>2012</t>
+    <t>IEEE Access</t>
+  </si>
+  <si>
+    <t>Machine Learning: Science and Technology</t>
+  </si>
+  <si>
+    <t>Neuromorphic Computing and Engineering</t>
+  </si>
+  <si>
+    <t>ICCWCS 2022</t>
   </si>
   <si>
     <t>NEWTECH</t>
   </si>
   <si>
-    <t>IEEE Access</t>
-  </si>
-  <si>
-    <t>Machine Learning: Science and Technology</t>
-  </si>
-  <si>
-    <t>Neuromorphic Computing and Engineering</t>
-  </si>
-  <si>
-    <t>ICCWCS 2022</t>
-  </si>
-  <si>
     <t>French-German-Swiss conference on Optimization</t>
   </si>
   <si>
@@ -953,9 +941,6 @@
   </si>
   <si>
     <t>International Journal for Simulation and Multidisciplinary Design Optimization</t>
-  </si>
-  <si>
-    <t>Renewable and Sustainable Energy Reviews</t>
   </si>
   <si>
     <t>x</t>
@@ -1316,7 +1301,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F86"/>
+  <dimension ref="A1:F84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1347,19 +1332,19 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C2" t="s">
-        <v>174</v>
-      </c>
-      <c r="D2">
-        <v>2022</v>
+        <v>172</v>
+      </c>
+      <c r="D2" t="s">
+        <v>255</v>
       </c>
       <c r="E2" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="F2" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1367,19 +1352,19 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C3" t="s">
-        <v>175</v>
-      </c>
-      <c r="D3">
-        <v>2022</v>
+        <v>173</v>
+      </c>
+      <c r="D3" t="s">
+        <v>256</v>
       </c>
       <c r="E3" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F3" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1387,19 +1372,19 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C4" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D4" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="E4" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="F4" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1407,19 +1392,19 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D5" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="E5" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="F5" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1427,19 +1412,19 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C6" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D6" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E6" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="F6" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1447,19 +1432,19 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D7" t="s">
         <v>258</v>
       </c>
       <c r="E7" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="F7" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1467,19 +1452,19 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C8" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D8" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="E8" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="F8" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1487,19 +1472,19 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C9" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D9" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E9" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F9" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1507,19 +1492,19 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C10" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D10" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="E10" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="F10" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1527,19 +1512,19 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C11" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D11" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E11" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="F11" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1547,19 +1532,19 @@
         <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C12" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D12" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E12" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="F12" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1567,19 +1552,19 @@
         <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C13" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D13" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="E13" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="F13" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1587,19 +1572,19 @@
         <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C14" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D14" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E14" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="F14" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1607,19 +1592,19 @@
         <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C15" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D15" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="E15" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="F15" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1627,19 +1612,19 @@
         <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C16" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D16" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E16" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="F16" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1647,19 +1632,19 @@
         <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C17" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D17" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E17" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="F17" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1667,19 +1652,19 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C18" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D18" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E18" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="F18" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1687,19 +1672,19 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C19" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D19" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E19" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="F19" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1707,19 +1692,19 @@
         <v>24</v>
       </c>
       <c r="B20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C20" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D20" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E20" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="F20" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1727,19 +1712,19 @@
         <v>25</v>
       </c>
       <c r="B21" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C21" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D21" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E21" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="F21" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1747,19 +1732,19 @@
         <v>26</v>
       </c>
       <c r="B22" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C22" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D22" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E22" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F22" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1767,19 +1752,19 @@
         <v>27</v>
       </c>
       <c r="B23" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C23" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D23" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E23" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="F23" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1787,19 +1772,19 @@
         <v>28</v>
       </c>
       <c r="B24" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C24" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D24" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E24" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="F24" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1807,19 +1792,19 @@
         <v>29</v>
       </c>
       <c r="B25" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C25" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D25" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E25" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="F25" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1827,19 +1812,19 @@
         <v>30</v>
       </c>
       <c r="B26" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C26" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D26" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E26" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F26" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1847,19 +1832,19 @@
         <v>31</v>
       </c>
       <c r="B27" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C27" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D27" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="E27" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="F27" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1867,19 +1852,19 @@
         <v>32</v>
       </c>
       <c r="B28" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C28" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D28" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="E28" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="F28" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1887,19 +1872,19 @@
         <v>33</v>
       </c>
       <c r="B29" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C29" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D29" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="E29" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="F29" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1907,19 +1892,19 @@
         <v>34</v>
       </c>
       <c r="B30" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C30" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D30" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="E30" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="F30" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1927,19 +1912,19 @@
         <v>35</v>
       </c>
       <c r="B31" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C31" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D31" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="E31" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="F31" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1947,19 +1932,19 @@
         <v>36</v>
       </c>
       <c r="B32" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C32" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D32" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="E32" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="F32" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1967,19 +1952,19 @@
         <v>37</v>
       </c>
       <c r="B33" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C33" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D33" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E33" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="F33" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1987,19 +1972,19 @@
         <v>38</v>
       </c>
       <c r="B34" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C34" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D34" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E34" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="F34" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -2007,19 +1992,19 @@
         <v>39</v>
       </c>
       <c r="B35" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C35" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D35" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E35" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="F35" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -2027,19 +2012,19 @@
         <v>40</v>
       </c>
       <c r="B36" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C36" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D36" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E36" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="F36" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -2047,19 +2032,19 @@
         <v>41</v>
       </c>
       <c r="B37" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C37" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D37" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E37" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="F37" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -2067,19 +2052,19 @@
         <v>42</v>
       </c>
       <c r="B38" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C38" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D38" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E38" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="F38" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -2087,19 +2072,19 @@
         <v>43</v>
       </c>
       <c r="B39" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C39" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D39" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E39" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="F39" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -2107,19 +2092,19 @@
         <v>44</v>
       </c>
       <c r="B40" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C40" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D40" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E40" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="F40" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -2127,19 +2112,19 @@
         <v>45</v>
       </c>
       <c r="B41" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C41" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D41" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E41" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="F41" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -2147,19 +2132,19 @@
         <v>46</v>
       </c>
       <c r="B42" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C42" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D42" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E42" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="F42" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2167,19 +2152,19 @@
         <v>47</v>
       </c>
       <c r="B43" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C43" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D43" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="E43" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="F43" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2187,19 +2172,19 @@
         <v>48</v>
       </c>
       <c r="B44" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C44" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D44" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="E44" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="F44" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2207,19 +2192,19 @@
         <v>49</v>
       </c>
       <c r="B45" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C45" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D45" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="E45" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="F45" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2227,19 +2212,19 @@
         <v>50</v>
       </c>
       <c r="B46" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C46" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D46" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="E46" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F46" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2247,19 +2232,19 @@
         <v>51</v>
       </c>
       <c r="B47" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C47" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D47" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="E47" t="s">
         <v>302</v>
       </c>
       <c r="F47" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2267,19 +2252,19 @@
         <v>52</v>
       </c>
       <c r="B48" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C48" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D48" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="E48" t="s">
         <v>302</v>
       </c>
       <c r="F48" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2287,19 +2272,19 @@
         <v>53</v>
       </c>
       <c r="B49" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C49" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D49" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="E49" t="s">
         <v>302</v>
       </c>
       <c r="F49" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2307,19 +2292,19 @@
         <v>54</v>
       </c>
       <c r="B50" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C50" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D50" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E50" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="F50" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2327,19 +2312,19 @@
         <v>55</v>
       </c>
       <c r="B51" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C51" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D51" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="E51" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="F51" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2347,19 +2332,19 @@
         <v>56</v>
       </c>
       <c r="B52" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C52" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D52" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="E52" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="F52" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2367,19 +2352,19 @@
         <v>57</v>
       </c>
       <c r="B53" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C53" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D53" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="E53" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="F53" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2387,19 +2372,19 @@
         <v>58</v>
       </c>
       <c r="B54" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C54" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D54" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="E54" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="F54" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2407,19 +2392,19 @@
         <v>59</v>
       </c>
       <c r="B55" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C55" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D55" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="E55" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="F55" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2427,19 +2412,19 @@
         <v>60</v>
       </c>
       <c r="B56" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C56" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D56" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="E56" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="F56" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2447,19 +2432,19 @@
         <v>61</v>
       </c>
       <c r="B57" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C57" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D57" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="E57" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="F57" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2467,19 +2452,19 @@
         <v>62</v>
       </c>
       <c r="B58" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C58" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D58" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="E58" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="F58" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2487,19 +2472,19 @@
         <v>63</v>
       </c>
       <c r="B59" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C59" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D59" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E59" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="F59" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2507,19 +2492,19 @@
         <v>64</v>
       </c>
       <c r="B60" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C60" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D60" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="E60" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="F60" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2527,19 +2512,19 @@
         <v>65</v>
       </c>
       <c r="B61" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C61" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D61" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="E61" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="F61" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2547,19 +2532,19 @@
         <v>66</v>
       </c>
       <c r="B62" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C62" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D62" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="E62" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="F62" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2567,19 +2552,19 @@
         <v>67</v>
       </c>
       <c r="B63" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C63" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D63" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="E63" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="F63" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2587,19 +2572,19 @@
         <v>68</v>
       </c>
       <c r="B64" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C64" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D64" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="E64" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="F64" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2607,19 +2592,19 @@
         <v>69</v>
       </c>
       <c r="B65" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C65" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D65" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="E65" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="F65" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2627,19 +2612,19 @@
         <v>70</v>
       </c>
       <c r="B66" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C66" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D66" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="E66" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="F66" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2647,19 +2632,19 @@
         <v>71</v>
       </c>
       <c r="B67" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C67" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D67" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="E67" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="F67" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2667,19 +2652,19 @@
         <v>72</v>
       </c>
       <c r="B68" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C68" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D68" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="E68" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="F68" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2687,19 +2672,19 @@
         <v>73</v>
       </c>
       <c r="B69" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C69" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D69" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="E69" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="F69" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2707,19 +2692,19 @@
         <v>74</v>
       </c>
       <c r="B70" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C70" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D70" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="E70" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="F70" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2727,19 +2712,19 @@
         <v>75</v>
       </c>
       <c r="B71" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C71" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D71" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="E71" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="F71" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2747,19 +2732,19 @@
         <v>76</v>
       </c>
       <c r="B72" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C72" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D72" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="E72" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="F72" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2767,19 +2752,19 @@
         <v>77</v>
       </c>
       <c r="B73" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C73" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D73" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="E73" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="F73" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2787,19 +2772,19 @@
         <v>78</v>
       </c>
       <c r="B74" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C74" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D74" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="E74" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="F74" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2807,19 +2792,19 @@
         <v>79</v>
       </c>
       <c r="B75" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C75" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D75" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="E75" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="F75" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2827,19 +2812,19 @@
         <v>80</v>
       </c>
       <c r="B76" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C76" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D76" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="E76" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="F76" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2847,19 +2832,19 @@
         <v>81</v>
       </c>
       <c r="B77" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C77" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D77" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="E77" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="F77" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2867,19 +2852,19 @@
         <v>82</v>
       </c>
       <c r="B78" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C78" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D78" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="E78" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="F78" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2887,19 +2872,19 @@
         <v>83</v>
       </c>
       <c r="B79" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C79" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D79" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="E79" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="F79" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2907,19 +2892,19 @@
         <v>84</v>
       </c>
       <c r="B80" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C80" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D80" t="s">
+        <v>296</v>
+      </c>
+      <c r="E80" t="s">
         <v>299</v>
       </c>
-      <c r="E80" t="s">
-        <v>304</v>
-      </c>
       <c r="F80" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2927,19 +2912,19 @@
         <v>85</v>
       </c>
       <c r="B81" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C81" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D81" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E81" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="F81" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2947,19 +2932,19 @@
         <v>86</v>
       </c>
       <c r="B82" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C82" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D82" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="E82" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="F82" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2967,19 +2952,19 @@
         <v>87</v>
       </c>
       <c r="B83" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C83" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D83" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="E83" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="F83" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2987,53 +2972,19 @@
         <v>88</v>
       </c>
       <c r="B84" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C84" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D84" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="E84" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="F84" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6">
-      <c r="A85" t="s">
-        <v>8</v>
-      </c>
-      <c r="B85" t="s">
-        <v>92</v>
-      </c>
-      <c r="C85" t="s">
-        <v>176</v>
-      </c>
-      <c r="D85" t="s">
-        <v>258</v>
-      </c>
-      <c r="E85" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
-      <c r="A86" t="s">
-        <v>89</v>
-      </c>
-      <c r="B86" t="s">
-        <v>173</v>
-      </c>
-      <c r="C86" t="s">
-        <v>257</v>
-      </c>
-      <c r="D86" t="s">
-        <v>301</v>
-      </c>
-      <c r="E86" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
   </sheetData>

--- a/metadata_list.xlsx
+++ b/metadata_list.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jana\LabCode\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FAE3DA3-3201-4605-A52F-C8621BFFC043}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -299,14 +305,6 @@
     <t>Modified Evolutionary Algorithm for Generating the Cycling Training Routes</t>
   </si>
   <si>
-    <t xml:space="preserve"> A Novel Similarity-Based Multi-Attribute Group Decision-Making Method in a Probabilistic
-Hesitant Fuzzy Environment</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> A Selective Many-to-Many Pickup and Delivery Problem With Handling Cost in the
-Omni-Channel Last-Mile Delivery</t>
-  </si>
-  <si>
     <t>Reliability aspects of binary vector-matrixmultiplications using ReRAM devices</t>
   </si>
   <si>
@@ -944,13 +942,19 @@
   </si>
   <si>
     <t>x</t>
+  </si>
+  <si>
+    <t>A Novel Similarity-Based Multi-Attribute Group Decision-Making Method in a Probabilistic Hesitant Fuzzy Environment</t>
+  </si>
+  <si>
+    <t>A Selective Many-to-Many Pickup and Delivery Problem With Handling Cost in the Omni-Channel Last-Mile Delivery</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1009,15 +1013,23 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1059,7 +1071,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1091,9 +1103,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1125,6 +1155,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1300,14 +1348,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F84"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="132.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1327,7 +1380,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1335,19 +1388,19 @@
         <v>89</v>
       </c>
       <c r="C2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="F2" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -1355,19 +1408,19 @@
         <v>90</v>
       </c>
       <c r="C3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D3" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E3" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F3" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -1375,19 +1428,19 @@
         <v>91</v>
       </c>
       <c r="C4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D4" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E4" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="F4" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -1395,19 +1448,19 @@
         <v>92</v>
       </c>
       <c r="C5" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D5" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E5" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="F5" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -1415,1576 +1468,1576 @@
         <v>93</v>
       </c>
       <c r="C6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D6" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E6" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="F6" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>94</v>
+        <v>305</v>
       </c>
       <c r="C7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D7" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E7" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="F7" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>95</v>
+        <v>306</v>
       </c>
       <c r="C8" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D8" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E8" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="F8" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C9" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D9" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E9" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="F9" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C10" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D10" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E10" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F10" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C11" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D11" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E11" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="F11" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C12" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D12" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E12" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F12" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C13" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D13" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E13" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="F13" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C14" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D14" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E14" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="F14" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C15" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D15" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E15" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="F15" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C16" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D16" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E16" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="F16" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C17" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D17" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E17" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F17" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C18" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D18" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E18" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="F18" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C19" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D19" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E19" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="F19" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>24</v>
       </c>
       <c r="B20" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C20" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D20" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E20" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="F20" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>25</v>
       </c>
       <c r="B21" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C21" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D21" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E21" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F21" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>26</v>
       </c>
       <c r="B22" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C22" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D22" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E22" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="F22" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>27</v>
       </c>
       <c r="B23" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C23" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D23" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E23" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F23" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>28</v>
       </c>
       <c r="B24" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C24" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D24" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E24" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="F24" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>29</v>
       </c>
       <c r="B25" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C25" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D25" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E25" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F25" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>30</v>
       </c>
       <c r="B26" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C26" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D26" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E26" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F26" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>31</v>
       </c>
       <c r="B27" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C27" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D27" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E27" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F27" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>32</v>
       </c>
       <c r="B28" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C28" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D28" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E28" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F28" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>33</v>
       </c>
       <c r="B29" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C29" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D29" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E29" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F29" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>34</v>
       </c>
       <c r="B30" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C30" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D30" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E30" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F30" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>35</v>
       </c>
       <c r="B31" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C31" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D31" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E31" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F31" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>36</v>
       </c>
       <c r="B32" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C32" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D32" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E32" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F32" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>37</v>
       </c>
       <c r="B33" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C33" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D33" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E33" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F33" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>38</v>
       </c>
       <c r="B34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C34" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D34" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E34" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F34" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>39</v>
       </c>
       <c r="B35" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C35" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D35" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E35" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="F35" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>40</v>
       </c>
       <c r="B36" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C36" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D36" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E36" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F36" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>41</v>
       </c>
       <c r="B37" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C37" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D37" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E37" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F37" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>42</v>
       </c>
       <c r="B38" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C38" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D38" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E38" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F38" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>43</v>
       </c>
       <c r="B39" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C39" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D39" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E39" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="F39" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>44</v>
       </c>
       <c r="B40" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C40" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D40" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E40" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="F40" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>45</v>
       </c>
       <c r="B41" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C41" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D41" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E41" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F41" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>46</v>
       </c>
       <c r="B42" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C42" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D42" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E42" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="F42" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>47</v>
       </c>
       <c r="B43" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C43" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D43" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E43" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F43" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>48</v>
       </c>
       <c r="B44" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C44" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D44" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E44" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="F44" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>49</v>
       </c>
       <c r="B45" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C45" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D45" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E45" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="F45" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>50</v>
       </c>
       <c r="B46" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C46" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D46" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E46" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="F46" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>51</v>
       </c>
       <c r="B47" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C47" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D47" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E47" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="F47" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>52</v>
       </c>
       <c r="B48" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C48" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D48" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E48" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="F48" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>53</v>
       </c>
       <c r="B49" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C49" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D49" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E49" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="F49" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>54</v>
       </c>
       <c r="B50" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C50" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D50" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E50" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="F50" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>55</v>
       </c>
       <c r="B51" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C51" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D51" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E51" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="F51" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>56</v>
       </c>
       <c r="B52" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C52" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D52" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="E52" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="F52" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>57</v>
       </c>
       <c r="B53" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C53" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D53" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E53" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="F53" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>58</v>
       </c>
       <c r="B54" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C54" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D54" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E54" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="F54" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>59</v>
       </c>
       <c r="B55" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C55" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D55" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E55" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F55" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>60</v>
       </c>
       <c r="B56" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C56" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D56" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E56" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F56" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>61</v>
       </c>
       <c r="B57" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C57" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D57" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E57" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F57" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>62</v>
       </c>
       <c r="B58" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C58" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D58" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E58" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F58" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>63</v>
       </c>
       <c r="B59" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C59" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D59" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E59" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="F59" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>64</v>
       </c>
       <c r="B60" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C60" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D60" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E60" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="F60" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>65</v>
       </c>
       <c r="B61" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C61" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D61" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E61" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="F61" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>66</v>
       </c>
       <c r="B62" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C62" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D62" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E62" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="F62" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>67</v>
       </c>
       <c r="B63" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C63" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D63" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E63" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="F63" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>68</v>
       </c>
       <c r="B64" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C64" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D64" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E64" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="F64" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>69</v>
       </c>
       <c r="B65" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C65" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D65" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E65" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="F65" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>70</v>
       </c>
       <c r="B66" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C66" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D66" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E66" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="F66" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>71</v>
       </c>
       <c r="B67" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C67" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D67" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="E67" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="F67" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>72</v>
       </c>
       <c r="B68" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C68" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D68" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E68" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="F68" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>73</v>
       </c>
       <c r="B69" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C69" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D69" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E69" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="F69" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>74</v>
       </c>
       <c r="B70" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C70" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D70" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E70" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F70" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>75</v>
       </c>
       <c r="B71" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C71" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D71" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E71" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F71" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>76</v>
       </c>
       <c r="B72" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C72" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D72" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E72" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F72" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>77</v>
       </c>
       <c r="B73" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C73" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D73" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E73" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F73" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>78</v>
       </c>
       <c r="B74" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C74" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D74" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E74" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F74" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>79</v>
       </c>
       <c r="B75" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C75" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D75" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E75" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="F75" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>80</v>
       </c>
       <c r="B76" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C76" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D76" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E76" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="F76" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>81</v>
       </c>
       <c r="B77" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C77" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D77" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E77" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="F77" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>82</v>
       </c>
       <c r="B78" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C78" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D78" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E78" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="F78" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>83</v>
       </c>
       <c r="B79" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C79" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D79" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="E79" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F79" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>84</v>
       </c>
       <c r="B80" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C80" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D80" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E80" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F80" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>85</v>
       </c>
       <c r="B81" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C81" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D81" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E81" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F81" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>86</v>
       </c>
       <c r="B82" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C82" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D82" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E82" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="F82" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>87</v>
       </c>
       <c r="B83" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C83" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D83" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E83" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="F83" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>88</v>
       </c>
       <c r="B84" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C84" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D84" t="s">
+        <v>295</v>
+      </c>
+      <c r="E84" t="s">
         <v>297</v>
       </c>
-      <c r="E84" t="s">
-        <v>299</v>
-      </c>
       <c r="F84" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
   </sheetData>

--- a/metadata_list.xlsx
+++ b/metadata_list.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25601"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jana\LabCode\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FAE3DA3-3201-4605-A52F-C8621BFFC043}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="313">
   <si>
     <t>PDF</t>
   </si>
@@ -289,8 +283,7 @@
     <t>Ćiprijanović_2022_Mach._Learn.__Sci._Technol._3_035007.pdf</t>
   </si>
   <si>
-    <t>Advanced Mobility Robustness Optimization Models in Future Mobile Networks Based on
-Machine Learning Solutions</t>
+    <t>Advanced Mobility Robustness Optimization Models in Future Mobile Networks Based on Machine Learning Solutions</t>
   </si>
   <si>
     <t>Improving parametric neural networks for highenergy physics (and beyond)</t>
@@ -305,6 +298,12 @@
     <t>Modified Evolutionary Algorithm for Generating the Cycling Training Routes</t>
   </si>
   <si>
+    <t>A Novel Similarity-Based Multi-Attribute Group Decision-Making Method in a Probabilistic Hesitant Fuzzy Environment</t>
+  </si>
+  <si>
+    <t>A Selective Many-to-Many Pickup and Delivery Problem With Handling Cost in the Omni-Channel Last-Mile Delivery</t>
+  </si>
+  <si>
     <t>Reliability aspects of binary vector-matrixmultiplications using ReRAM devices</t>
   </si>
   <si>
@@ -485,8 +484,7 @@
     <t>SEM Image Quality Assessment Based on Intuitive Morphology and Deep Semantic Features</t>
   </si>
   <si>
-    <t>Emulation and modelling of semiconductor optical amplifier-based all-optical photonic integrated
-deep neural network with arbitrary depth</t>
+    <t>Emulation and modelling of semiconductor optical amplifier-based all-optical photonic integrated deep neural network with arbitrary depth</t>
   </si>
   <si>
     <t>Experimental investigations and finite element analysis of milling of Inconel 718 alloy</t>
@@ -510,8 +508,7 @@
     <t>Neuromorphic computing for attitude estimation onboard quadrotors</t>
   </si>
   <si>
-    <t>Advantages of binary stochastic synapses for hardware spiking neural networks with realistic
-memristors</t>
+    <t>Advantages of binary stochastic synapses for hardware spiking neural networks with realistic memristors</t>
   </si>
   <si>
     <t>The Metaverse and Beyond: Implementing Advanced Multiverse Realms With Smart Wearables</t>
@@ -788,133 +785,151 @@
     <t>Aleksandra Ćiprijanovi,Diana Kafkes,Gregory Snyder,F Javier Sánchez,Gabriel Nathan Perdue,Kevin Pedro,Brian Nord,Sandeep Madireddy,Stefan M Wild</t>
   </si>
   <si>
-    <t>19 October 2022</t>
-  </si>
-  <si>
-    <t>5 October 2022</t>
-  </si>
-  <si>
-    <t>14 October 2022</t>
-  </si>
-  <si>
-    <t>17 October 2022</t>
-  </si>
-  <si>
-    <t>22 June 2022</t>
-  </si>
-  <si>
-    <t>19 August 2022</t>
-  </si>
-  <si>
-    <t>21 October 2022</t>
-  </si>
-  <si>
-    <t>6 July 2022</t>
-  </si>
-  <si>
-    <t>5 August 2022</t>
-  </si>
-  <si>
-    <t>26 August 2022</t>
-  </si>
-  <si>
-    <t>23 September 2022</t>
-  </si>
-  <si>
-    <t>22 September 2022</t>
-  </si>
-  <si>
-    <t>17 August 2022</t>
-  </si>
-  <si>
-    <t>1 October 2022</t>
-  </si>
-  <si>
-    <t>16 October 2022</t>
-  </si>
-  <si>
-    <t>20 September 2022</t>
-  </si>
-  <si>
-    <t>14 July 2022</t>
-  </si>
-  <si>
-    <t>3 August 2022</t>
-  </si>
-  <si>
-    <t>13 July 2022</t>
-  </si>
-  <si>
-    <t>2022</t>
-  </si>
-  <si>
-    <t>26 September 2022</t>
-  </si>
-  <si>
-    <t>14 September 2022</t>
-  </si>
-  <si>
-    <t>21 September 2022</t>
-  </si>
-  <si>
-    <t>15 July 2022</t>
-  </si>
-  <si>
-    <t>30 August 2022</t>
-  </si>
-  <si>
-    <t>31 August 2022</t>
-  </si>
-  <si>
-    <t>1 July 2022</t>
-  </si>
-  <si>
-    <t>15 September 2022</t>
-  </si>
-  <si>
-    <t>19 July 2022</t>
-  </si>
-  <si>
-    <t>2 September 2022</t>
-  </si>
-  <si>
-    <t>10 October 2022</t>
-  </si>
-  <si>
-    <t>20 August 2022</t>
-  </si>
-  <si>
-    <t>30 September 2022</t>
-  </si>
-  <si>
-    <t>August 2021</t>
-  </si>
-  <si>
-    <t>28 September 2022</t>
-  </si>
-  <si>
-    <t>14 June2022</t>
-  </si>
-  <si>
-    <t>22 July 2022</t>
-  </si>
-  <si>
-    <t>8 August 2022</t>
-  </si>
-  <si>
-    <t>25 July 2022</t>
-  </si>
-  <si>
-    <t>2021</t>
-  </si>
-  <si>
-    <t>18 August 2022</t>
-  </si>
-  <si>
-    <t>7 July 2022</t>
-  </si>
-  <si>
-    <t>21 July 2022</t>
+    <t>2022-10-19</t>
+  </si>
+  <si>
+    <t>2022-10-05</t>
+  </si>
+  <si>
+    <t>2022-10-14</t>
+  </si>
+  <si>
+    <t>2022-10-17</t>
+  </si>
+  <si>
+    <t>2022-06-22</t>
+  </si>
+  <si>
+    <t>2022-08-19</t>
+  </si>
+  <si>
+    <t>2022-10-21</t>
+  </si>
+  <si>
+    <t>2022-07-06</t>
+  </si>
+  <si>
+    <t>2022-08-05</t>
+  </si>
+  <si>
+    <t>2022-08-26</t>
+  </si>
+  <si>
+    <t>2022-09-23</t>
+  </si>
+  <si>
+    <t>2022-09-22</t>
+  </si>
+  <si>
+    <t>2022-08-17</t>
+  </si>
+  <si>
+    <t>2022-10-01</t>
+  </si>
+  <si>
+    <t>2022-10-16</t>
+  </si>
+  <si>
+    <t>2022-09-20</t>
+  </si>
+  <si>
+    <t>2022-07-14</t>
+  </si>
+  <si>
+    <t>2022-08-03</t>
+  </si>
+  <si>
+    <t>2022-07-13</t>
+  </si>
+  <si>
+    <t>2022-09-01</t>
+  </si>
+  <si>
+    <t>2022-09-26</t>
+  </si>
+  <si>
+    <t>2022-09-14</t>
+  </si>
+  <si>
+    <t>2022-09-21</t>
+  </si>
+  <si>
+    <t>2022-07-15</t>
+  </si>
+  <si>
+    <t>2022-08-30</t>
+  </si>
+  <si>
+    <t>2022-08-31</t>
+  </si>
+  <si>
+    <t>2022-07-01</t>
+  </si>
+  <si>
+    <t>2022-09-15</t>
+  </si>
+  <si>
+    <t>2022-07-19</t>
+  </si>
+  <si>
+    <t>2022-09-02</t>
+  </si>
+  <si>
+    <t>2022-10-10</t>
+  </si>
+  <si>
+    <t>2022-08-20</t>
+  </si>
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2021-08-01</t>
+  </si>
+  <si>
+    <t>2021-08-02</t>
+  </si>
+  <si>
+    <t>2021-08-03</t>
+  </si>
+  <si>
+    <t>2021-08-04</t>
+  </si>
+  <si>
+    <t>2022-09-28</t>
+  </si>
+  <si>
+    <t>2022-06-14</t>
+  </si>
+  <si>
+    <t>2022-07-22</t>
+  </si>
+  <si>
+    <t>2022-08-09</t>
+  </si>
+  <si>
+    <t>2022-07-25</t>
+  </si>
+  <si>
+    <t>2021-08-10</t>
+  </si>
+  <si>
+    <t>2021-04-12</t>
+  </si>
+  <si>
+    <t>2021-09-27</t>
+  </si>
+  <si>
+    <t>2021-10-20</t>
+  </si>
+  <si>
+    <t>2022-08-18</t>
+  </si>
+  <si>
+    <t>2022-07-07</t>
+  </si>
+  <si>
+    <t>2022-07-21</t>
   </si>
   <si>
     <t>IEEE Access</t>
@@ -942,19 +957,13 @@
   </si>
   <si>
     <t>x</t>
-  </si>
-  <si>
-    <t>A Novel Similarity-Based Multi-Attribute Group Decision-Making Method in a Probabilistic Hesitant Fuzzy Environment</t>
-  </si>
-  <si>
-    <t>A Selective Many-to-Many Pickup and Delivery Problem With Handling Cost in the Omni-Channel Last-Mile Delivery</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1013,23 +1022,15 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1071,7 +1072,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1103,27 +1104,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1155,24 +1138,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1348,19 +1313,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="132.42578125" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1380,7 +1340,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1388,19 +1348,19 @@
         <v>89</v>
       </c>
       <c r="C2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D2" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="E2" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="F2" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -1408,19 +1368,19 @@
         <v>90</v>
       </c>
       <c r="C3" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D3" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="E3" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="F3" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -1428,19 +1388,19 @@
         <v>91</v>
       </c>
       <c r="C4" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D4" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="E4" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="F4" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -1448,19 +1408,19 @@
         <v>92</v>
       </c>
       <c r="C5" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D5" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="E5" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="F5" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -1468,1576 +1428,1576 @@
         <v>93</v>
       </c>
       <c r="C6" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D6" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="E6" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="F6" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>305</v>
+        <v>94</v>
       </c>
       <c r="C7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E7" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="F7" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>306</v>
+        <v>95</v>
       </c>
       <c r="C8" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D8" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="E8" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="F8" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C9" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D9" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="E9" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="F9" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C10" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D10" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="E10" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="F10" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C11" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D11" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="E11" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="F11" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C12" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D12" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E12" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="F12" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
         <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C13" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D13" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="E13" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="F13" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
         <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C14" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D14" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="E14" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="F14" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
         <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C15" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D15" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="E15" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="F15" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
         <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C16" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D16" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="E16" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="F16" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
         <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C17" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D17" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="E17" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="F17" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C18" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D18" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E18" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="F18" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" t="s">
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C19" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D19" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="E19" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="F19" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" t="s">
         <v>24</v>
       </c>
       <c r="B20" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C20" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D20" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="E20" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="F20" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" t="s">
         <v>25</v>
       </c>
       <c r="B21" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C21" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D21" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="E21" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="F21" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" t="s">
         <v>26</v>
       </c>
       <c r="B22" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C22" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D22" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="E22" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="F22" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" t="s">
         <v>27</v>
       </c>
       <c r="B23" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C23" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D23" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="E23" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="F23" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" t="s">
         <v>28</v>
       </c>
       <c r="B24" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C24" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D24" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="E24" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="F24" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" t="s">
         <v>29</v>
       </c>
       <c r="B25" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C25" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D25" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="E25" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="F25" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" t="s">
         <v>30</v>
       </c>
       <c r="B26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C26" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D26" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="E26" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="F26" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" t="s">
         <v>31</v>
       </c>
       <c r="B27" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C27" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D27" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="E27" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="F27" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" t="s">
         <v>32</v>
       </c>
       <c r="B28" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C28" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D28" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="E28" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="F28" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" t="s">
         <v>33</v>
       </c>
       <c r="B29" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C29" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D29" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="E29" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="F29" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" t="s">
         <v>34</v>
       </c>
       <c r="B30" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C30" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D30" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="E30" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="F30" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" t="s">
         <v>35</v>
       </c>
       <c r="B31" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C31" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D31" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="E31" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="F31" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" t="s">
         <v>36</v>
       </c>
       <c r="B32" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C32" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D32" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="E32" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="F32" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" t="s">
         <v>37</v>
       </c>
       <c r="B33" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C33" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D33" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="E33" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="F33" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" t="s">
         <v>38</v>
       </c>
       <c r="B34" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C34" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D34" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="E34" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="F34" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" t="s">
         <v>39</v>
       </c>
       <c r="B35" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C35" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D35" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="E35" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="F35" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" t="s">
         <v>40</v>
       </c>
       <c r="B36" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C36" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D36" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="E36" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="F36" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" t="s">
         <v>41</v>
       </c>
       <c r="B37" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C37" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D37" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E37" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="F37" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" t="s">
         <v>42</v>
       </c>
       <c r="B38" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C38" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D38" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E38" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="F38" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" t="s">
         <v>43</v>
       </c>
       <c r="B39" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C39" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D39" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="E39" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="F39" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" t="s">
         <v>44</v>
       </c>
       <c r="B40" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C40" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D40" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E40" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="F40" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" t="s">
         <v>45</v>
       </c>
       <c r="B41" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C41" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D41" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="E41" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="F41" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" t="s">
         <v>46</v>
       </c>
       <c r="B42" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C42" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D42" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="E42" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="F42" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" t="s">
         <v>47</v>
       </c>
       <c r="B43" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C43" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D43" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="E43" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="F43" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" t="s">
         <v>48</v>
       </c>
       <c r="B44" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C44" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D44" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="E44" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="F44" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" t="s">
         <v>49</v>
       </c>
       <c r="B45" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C45" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D45" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="E45" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="F45" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" t="s">
         <v>50</v>
       </c>
       <c r="B46" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C46" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D46" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="E46" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="F46" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" t="s">
         <v>51</v>
       </c>
       <c r="B47" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C47" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D47" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="E47" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="F47" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" t="s">
         <v>52</v>
       </c>
       <c r="B48" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C48" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D48" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="E48" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="F48" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" t="s">
         <v>53</v>
       </c>
       <c r="B49" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C49" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D49" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="E49" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="F49" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" t="s">
         <v>54</v>
       </c>
       <c r="B50" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C50" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D50" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="E50" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="F50" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" t="s">
         <v>55</v>
       </c>
       <c r="B51" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C51" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D51" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="E51" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="F51" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" t="s">
         <v>56</v>
       </c>
       <c r="B52" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C52" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D52" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="E52" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="F52" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" t="s">
         <v>57</v>
       </c>
       <c r="B53" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C53" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D53" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="E53" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="F53" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" t="s">
         <v>58</v>
       </c>
       <c r="B54" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C54" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D54" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="E54" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="F54" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" t="s">
         <v>59</v>
       </c>
       <c r="B55" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C55" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D55" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E55" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="F55" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" t="s">
         <v>60</v>
       </c>
       <c r="B56" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C56" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D56" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="E56" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="F56" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" t="s">
         <v>61</v>
       </c>
       <c r="B57" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C57" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D57" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="E57" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="F57" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" t="s">
         <v>62</v>
       </c>
       <c r="B58" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C58" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D58" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="E58" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="F58" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" t="s">
         <v>63</v>
       </c>
       <c r="B59" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C59" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="D59" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="E59" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="F59" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" t="s">
         <v>64</v>
       </c>
       <c r="B60" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C60" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D60" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="E60" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="F60" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" t="s">
         <v>65</v>
       </c>
       <c r="B61" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C61" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D61" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="E61" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="F61" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" t="s">
         <v>66</v>
       </c>
       <c r="B62" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C62" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D62" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="E62" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="F62" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" t="s">
         <v>67</v>
       </c>
       <c r="B63" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C63" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D63" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="E63" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="F63" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" t="s">
         <v>68</v>
       </c>
       <c r="B64" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C64" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D64" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="E64" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="F64" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" t="s">
         <v>69</v>
       </c>
       <c r="B65" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C65" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D65" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="E65" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="F65" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" t="s">
         <v>70</v>
       </c>
       <c r="B66" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C66" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D66" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="E66" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="F66" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" t="s">
         <v>71</v>
       </c>
       <c r="B67" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C67" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D67" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="E67" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="F67" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" t="s">
         <v>72</v>
       </c>
       <c r="B68" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C68" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D68" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="E68" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="F68" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" t="s">
         <v>73</v>
       </c>
       <c r="B69" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C69" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D69" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="E69" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="F69" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" t="s">
         <v>74</v>
       </c>
       <c r="B70" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C70" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D70" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="E70" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="F70" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" t="s">
         <v>75</v>
       </c>
       <c r="B71" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C71" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D71" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="E71" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="F71" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" t="s">
         <v>76</v>
       </c>
       <c r="B72" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C72" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D72" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="E72" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="F72" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" t="s">
         <v>77</v>
       </c>
       <c r="B73" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C73" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D73" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="E73" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="F73" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" t="s">
         <v>78</v>
       </c>
       <c r="B74" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C74" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="D74" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="E74" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="F74" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" t="s">
         <v>79</v>
       </c>
       <c r="B75" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C75" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D75" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="E75" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="F75" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" t="s">
         <v>80</v>
       </c>
       <c r="B76" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C76" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D76" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="E76" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="F76" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" t="s">
         <v>81</v>
       </c>
       <c r="B77" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C77" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D77" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="E77" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="F77" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" t="s">
         <v>82</v>
       </c>
       <c r="B78" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C78" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D78" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="E78" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="F78" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" t="s">
         <v>83</v>
       </c>
       <c r="B79" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C79" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D79" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="E79" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="F79" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" t="s">
         <v>84</v>
       </c>
       <c r="B80" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C80" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D80" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="E80" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="F80" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" t="s">
         <v>85</v>
       </c>
       <c r="B81" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C81" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="D81" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="E81" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="F81" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" t="s">
         <v>86</v>
       </c>
       <c r="B82" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C82" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D82" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E82" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="F82" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" t="s">
         <v>87</v>
       </c>
       <c r="B83" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C83" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D83" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="E83" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="F83" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" t="s">
         <v>88</v>
       </c>
       <c r="B84" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C84" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D84" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="E84" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="F84" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
     </row>
   </sheetData>
